--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -14,17 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,6 +95,118 @@
   </si>
   <si>
     <t>表名 : message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案指派的业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案所属的内勤人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(正常) 1(停用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级组织id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色包含:
+ROLE_ADMIN,
+ROLE_INSIDE_STAFF, 
+ROLE_OUTSIDE_STAFF, 
+ROLE_MANAGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : authority</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,14 +425,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -336,6 +438,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -640,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,95 +765,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,93 +52,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接收用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案指派的业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案所属的内勤人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(正常) 1(停用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息接收用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json格式附件路径及名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：
-1)附件路径构成 /entrusted_case/from-to/附件内容
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assignee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案指派的业务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案所属的内勤人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
+    <t>父级组织id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,19 +148,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0(正常) 1(停用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent</t>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,31 +168,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父级组织id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
+    <t>实际委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json格式附件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +192,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名 : authority</t>
+    <t>attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（未读） 1（已读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1)附件路径构成 /MSG/entrusted_case/from-to/   eg. /MSG/1/1-2/
+2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+附件路径构成 /REPORT/entrusted_case/owner   eg. /REPORT/1/2
+2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+附件路径构成 /ENTRUSTED_CASE/entrusted_case/   eg. /ENTRUSTED_CASE/1/
+2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -421,11 +513,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -438,18 +601,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -754,43 +922,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -798,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -809,21 +979,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -831,290 +1001,393 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="B37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>7</v>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:C9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,22 +133,6 @@
   </si>
   <si>
     <t>父级组织id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,12 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意：
-附件路径构成 /ENTRUSTED_CASE/entrusted_case/   eg. /ENTRUSTED_CASE/1/
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>entrusted_case_manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,6 +273,58 @@
   </si>
   <si>
     <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口id[自增主键]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -607,17 +633,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,11 +955,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -942,13 +973,13 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -987,7 +1018,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1009,43 +1040,43 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
@@ -1054,7 +1085,7 @@
     </row>
     <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1083,7 +1114,7 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -1097,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1105,13 +1136,13 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1119,32 +1150,32 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>68</v>
+      <c r="A20" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>65</v>
+      <c r="A21" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1152,242 +1183,325 @@
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="44" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>42</v>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用户" sheetId="2" r:id="rId1"/>
+    <sheet name="委案" sheetId="4" r:id="rId2"/>
+    <sheet name="消息" sheetId="1" r:id="rId3"/>
+    <sheet name="权限" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,27 +131,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>父级组织id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名 : authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名 : entrusted_case_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +210,142 @@
   </si>
   <si>
     <t>entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口id[自增主键]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,55 +355,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entrusted_case_manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_modified_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
+    <t>org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -296,35 +363,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口id[自增主键]</t>
+    <t>所属组织id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -610,11 +649,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,12 +690,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -651,6 +697,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -955,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,19 +1021,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -996,515 +1050,699 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
+      <c r="A8" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
+      <c r="A9" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A33:C33"/>
+  <mergeCells count="1">
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,15 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assignee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,157 +205,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>send_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口id[自增主键]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属组织id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1)附件路径构成 /REPORT/entrusted_case/owner   eg. /REPORT/1/2
+2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrusted_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近修改人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>entrusted_case_manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attachements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_modified_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口id[自增主键]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : user_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：
-附件路径构成 /REPORT/entrusted_case/owner   eg. /REPORT/1/2
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属组织id</t>
+    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,13 +710,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,170 +1023,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1185,7 +1033,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1214,68 +1062,234 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1290,7 +1304,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1319,24 +1333,24 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1352,41 +1366,69 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="C20" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1398,7 +1440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1459,7 +1503,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1470,7 +1514,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1481,43 +1525,43 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1533,7 +1577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1543,7 +1589,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1572,13 +1618,13 @@
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1588,7 +1634,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1612,34 +1658,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1657,7 +1703,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1668,7 +1714,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1677,10 +1723,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1691,7 +1737,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1720,24 +1766,24 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="消息" sheetId="1" r:id="rId3"/>
     <sheet name="权限" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名 : message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assignee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,19 +139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色包含:
-ROLE_ADMIN,
-ROLE_INSIDE_STAFF, 
-ROLE_OUTSIDE_STAFF, 
-ROLE_MANAGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attachements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,14 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口id[自增主键]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +250,6 @@
   </si>
   <si>
     <t>接口描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,6 +348,42 @@
   </si>
   <si>
     <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色包含:
+ROLE_ADMIN,
+ROLE_MANAGER,
+ROLE_INSIDE_STAFF, 
+ROLE_OUTSIDE_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口id[主键]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1041,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1062,35 +1070,35 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1100,7 +1108,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1129,46 +1137,46 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1187,9 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1199,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1228,68 +1234,68 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1304,7 +1310,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1333,24 +1339,24 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1366,62 +1372,62 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -1440,9 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1452,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1514,7 +1518,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1525,40 +1529,40 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -1577,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1589,7 +1593,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1618,13 +1622,13 @@
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1634,7 +1638,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1658,34 +1662,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1703,7 +1707,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1714,7 +1718,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1723,10 +1727,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1737,7 +1741,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1766,24 +1770,24 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汇报日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>委案id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
   </si>
   <si>
     <t>表名 : role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,6 +376,30 @@
   </si>
   <si>
     <t>接口id[主键]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1086,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1108,7 +1124,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1137,35 +1153,35 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1205,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1234,7 +1250,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1267,7 +1283,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1278,24 +1294,24 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1339,13 +1355,13 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1353,88 +1369,99 @@
         <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>69</v>
+      <c r="A20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1507,7 +1534,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1518,7 +1545,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1540,18 +1567,18 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
@@ -1581,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1628,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1638,7 +1665,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1662,34 +1689,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1707,7 +1734,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1718,7 +1745,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1727,10 +1754,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1741,7 +1768,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1770,24 +1797,24 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名 : entrusted_case_report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entrusted_case_manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>send_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>last_modified_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,23 +261,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表名 : authority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>created_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entrusted_case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>creator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +304,6 @@
   </si>
   <si>
     <t>最近修改人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrusted_case_manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,6 +368,34 @@
   </si>
   <si>
     <t>intf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCaseManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifiedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1086,7 +1084,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1124,7 +1122,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1153,35 +1151,35 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1211,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1221,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1294,24 +1294,24 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,7 +1326,7 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1355,35 +1355,35 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1410,51 +1410,51 @@
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -1473,7 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1483,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1534,7 +1536,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1545,7 +1547,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1567,18 +1569,18 @@
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
@@ -1608,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1655,7 +1657,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1665,7 +1667,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1689,34 +1691,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1734,7 +1736,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1745,7 +1747,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1754,10 +1756,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1768,7 +1770,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1797,24 +1799,24 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
     <sheet name="委案" sheetId="4" r:id="rId2"/>
     <sheet name="消息" sheetId="1" r:id="rId3"/>
     <sheet name="权限" sheetId="3" r:id="rId4"/>
+    <sheet name="备注" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="764">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +129,6 @@
   </si>
   <si>
     <t>实际委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委案类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,10 +163,6 @@
   </si>
   <si>
     <t>委案id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名 : entrusted_case_manager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,31 +364,2145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCaseManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastModifiedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>xh</t>
+  </si>
+  <si>
+    <t>wwrq</t>
+  </si>
+  <si>
+    <t>wwdqr</t>
+  </si>
+  <si>
+    <t>jarq</t>
+  </si>
+  <si>
+    <t>khxm</t>
+  </si>
+  <si>
+    <t>htbh</t>
+  </si>
+  <si>
+    <t>wbsbh</t>
+  </si>
+  <si>
+    <t>wwlx</t>
+  </si>
+  <si>
+    <t>khxb</t>
+  </si>
+  <si>
+    <t>khcsrq</t>
+  </si>
+  <si>
+    <t>khsfzh</t>
+  </si>
+  <si>
+    <t>wwzt</t>
+  </si>
+  <si>
+    <t>wfqs</t>
+  </si>
+  <si>
+    <t>wfje</t>
+  </si>
+  <si>
+    <t>yqts</t>
+  </si>
+  <si>
+    <t>yqje</t>
+  </si>
+  <si>
+    <t>ygckje</t>
+  </si>
+  <si>
+    <t>dkqx</t>
+  </si>
+  <si>
+    <t>yqqs</t>
+  </si>
+  <si>
+    <t>zjyqcs</t>
+  </si>
+  <si>
+    <t>hkqs</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>jxs</t>
+  </si>
+  <si>
+    <t>khsj</t>
+  </si>
+  <si>
+    <t>khzd</t>
+  </si>
+  <si>
+    <t>khgs</t>
+  </si>
+  <si>
+    <t>khgsdh</t>
+  </si>
+  <si>
+    <t>fq</t>
+  </si>
+  <si>
+    <t>qh</t>
+  </si>
+  <si>
+    <t>yb</t>
+  </si>
+  <si>
+    <t>poxm</t>
+  </si>
+  <si>
+    <t>posj</t>
+  </si>
+  <si>
+    <t>qtlxfs</t>
+  </si>
+  <si>
+    <t>pogs</t>
+  </si>
+  <si>
+    <t>pogsdh</t>
+  </si>
+  <si>
+    <t>khlx</t>
+  </si>
+  <si>
+    <t>sqrq</t>
+  </si>
+  <si>
+    <t>fkrq</t>
+  </si>
+  <si>
+    <t>bddqr</t>
+  </si>
+  <si>
+    <t>dkje</t>
+  </si>
+  <si>
+    <t>dkzl</t>
+  </si>
+  <si>
+    <t>khll</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>zw</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>dbrxm</t>
+  </si>
+  <si>
+    <t>ysqrgx</t>
+  </si>
+  <si>
+    <t>dbrcsrq</t>
+  </si>
+  <si>
+    <t>dbrsfzh</t>
+  </si>
+  <si>
+    <t>dbrsj</t>
+  </si>
+  <si>
+    <t>dbrgsmc</t>
+  </si>
+  <si>
+    <t>dbrgsdh</t>
+  </si>
+  <si>
+    <t>dbrgsdz</t>
+  </si>
+  <si>
+    <t>yx</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>wydcyy</t>
+  </si>
+  <si>
+    <t>yqyy</t>
+  </si>
+  <si>
+    <t>dhqk</t>
+  </si>
+  <si>
+    <t>dhlxr</t>
+  </si>
+  <si>
+    <t>hkqk</t>
+  </si>
+  <si>
+    <t>xxxglb</t>
+  </si>
+  <si>
+    <t>clqk</t>
+  </si>
+  <si>
+    <t>khhztd</t>
+  </si>
+  <si>
+    <t>clzt</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
+    <t>wwjg</t>
+  </si>
+  <si>
+    <t>pcode</t>
+  </si>
+  <si>
+    <t>ccode</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>委外日期</t>
+  </si>
+  <si>
+    <t>委外到期日</t>
+  </si>
+  <si>
+    <t>结案日期</t>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>外包商编号</t>
+  </si>
+  <si>
+    <t>委外类型</t>
+  </si>
+  <si>
+    <t>客户性别</t>
+  </si>
+  <si>
+    <t>客户出生日期</t>
+  </si>
+  <si>
+    <t>客户身份证号</t>
+  </si>
+  <si>
+    <t>委外状态</t>
+  </si>
+  <si>
+    <t>外访期数</t>
+  </si>
+  <si>
+    <t>外访金额</t>
+  </si>
+  <si>
+    <t>逾期天数</t>
+  </si>
+  <si>
+    <t>逾期金额</t>
+  </si>
+  <si>
+    <t>月供车款金额</t>
+  </si>
+  <si>
+    <t>贷款期限</t>
+  </si>
+  <si>
+    <t>逾期期数</t>
+  </si>
+  <si>
+    <t>曾经逾期次数</t>
+  </si>
+  <si>
+    <t>还款期数</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>经销商</t>
+  </si>
+  <si>
+    <t>客户手机</t>
+  </si>
+  <si>
+    <t>客户宅电</t>
+  </si>
+  <si>
+    <t>客户公司</t>
+  </si>
+  <si>
+    <t>客户公司电话</t>
+  </si>
+  <si>
+    <t>分区</t>
+  </si>
+  <si>
+    <t>区号</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>配偶姓名</t>
+  </si>
+  <si>
+    <t>配偶手机</t>
+  </si>
+  <si>
+    <t>其他联系方式</t>
+  </si>
+  <si>
+    <t>配偶公司</t>
+  </si>
+  <si>
+    <t>配偶公司电话</t>
+  </si>
+  <si>
+    <t>客户类型</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>放款日期</t>
+  </si>
+  <si>
+    <t>还款日</t>
+  </si>
+  <si>
+    <t>保单到期日</t>
+  </si>
+  <si>
+    <t>贷款金额</t>
+  </si>
+  <si>
+    <t>贷款种类</t>
+  </si>
+  <si>
+    <t>客户利率</t>
+  </si>
+  <si>
+    <t>车价</t>
+  </si>
+  <si>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>担保人姓名</t>
+  </si>
+  <si>
+    <t>与申请人关系</t>
+  </si>
+  <si>
+    <t>担保人出生日期</t>
+  </si>
+  <si>
+    <t>担保人身份证号</t>
+  </si>
+  <si>
+    <t>担保人手机</t>
+  </si>
+  <si>
+    <t>担保人公司名称</t>
+  </si>
+  <si>
+    <t>担保人公司电话</t>
+  </si>
+  <si>
+    <t>担保人公司地址</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>帐号</t>
+  </si>
+  <si>
+    <t>网银导出原因</t>
+  </si>
+  <si>
+    <t>逾期原因</t>
+  </si>
+  <si>
+    <t>电话情况</t>
+  </si>
+  <si>
+    <t>电话联系人</t>
+  </si>
+  <si>
+    <t>还款情况</t>
+  </si>
+  <si>
+    <t>还款人</t>
+  </si>
+  <si>
+    <t>信息修改类别</t>
+  </si>
+  <si>
+    <t>车辆情况</t>
+  </si>
+  <si>
+    <t>客户合作态度</t>
+  </si>
+  <si>
+    <t>处理状态</t>
+  </si>
+  <si>
+    <t>反馈日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>委外结果</t>
+  </si>
+  <si>
+    <t>PCODE</t>
+  </si>
+  <si>
+    <t>CCODE</t>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为整数？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应到不同数据库为varchar nvarchar 等，
+需要根据情况来确定具体需要长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数，根据不同数据库自行映射到具体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数，根据不同数据库自行映射到具体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变长度的字符串类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确到时分秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典中用到的类型说明:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khh</t>
+  </si>
+  <si>
+    <t>zhh</t>
+  </si>
+  <si>
+    <t>xb</t>
+  </si>
+  <si>
+    <t>sfzh</t>
+  </si>
+  <si>
+    <t>fkjg</t>
+  </si>
+  <si>
+    <t>qyje</t>
+  </si>
+  <si>
+    <t>fkje</t>
+  </si>
+  <si>
+    <t>cplx</t>
+  </si>
+  <si>
+    <t>fksj</t>
+  </si>
+  <si>
+    <t>tqjqje</t>
+  </si>
+  <si>
+    <t>zqs</t>
+  </si>
+  <si>
+    <t>dqqs</t>
+  </si>
+  <si>
+    <t>yhqs</t>
+  </si>
+  <si>
+    <t>sybj</t>
+  </si>
+  <si>
+    <t>yqlx</t>
+  </si>
+  <si>
+    <t>yqfx</t>
+  </si>
+  <si>
+    <t>yqglf</t>
+  </si>
+  <si>
+    <t>yqwyj</t>
+  </si>
+  <si>
+    <t>yqbj</t>
+  </si>
+  <si>
+    <t>whbj</t>
+  </si>
+  <si>
+    <t>yhke</t>
+  </si>
+  <si>
+    <t>zhm</t>
+  </si>
+  <si>
+    <t>yxm</t>
+  </si>
+  <si>
+    <t>yxzh</t>
+  </si>
+  <si>
+    <t>gjgs</t>
+  </si>
+  <si>
+    <t>zl</t>
+  </si>
+  <si>
+    <t>dzyx</t>
+  </si>
+  <si>
+    <t>hjdh</t>
+  </si>
+  <si>
+    <t>hjdz</t>
+  </si>
+  <si>
+    <t>sjhm</t>
+  </si>
+  <si>
+    <t>zzdh</t>
+  </si>
+  <si>
+    <t>zzdz</t>
+  </si>
+  <si>
+    <t>gsmc</t>
+  </si>
+  <si>
+    <t>gsdz</t>
+  </si>
+  <si>
+    <t>gsdh</t>
+  </si>
+  <si>
+    <t>llr1xm</t>
+  </si>
+  <si>
+    <t>llr1gx</t>
+  </si>
+  <si>
+    <t>llr1dh</t>
+  </si>
+  <si>
+    <t>llr2xm</t>
+  </si>
+  <si>
+    <t>llr2gx</t>
+  </si>
+  <si>
+    <t>llr2dh</t>
+  </si>
+  <si>
+    <t>llr3xm</t>
+  </si>
+  <si>
+    <t>llr3gx</t>
+  </si>
+  <si>
+    <t>llr3dh</t>
+  </si>
+  <si>
+    <t>llr4xm</t>
+  </si>
+  <si>
+    <t>llr4gx</t>
+  </si>
+  <si>
+    <t>llr4dh</t>
+  </si>
+  <si>
+    <t>llr5xm</t>
+  </si>
+  <si>
+    <t>llr5gx</t>
+  </si>
+  <si>
+    <t>llr5dh</t>
+  </si>
+  <si>
+    <t>llr6xm</t>
+  </si>
+  <si>
+    <t>llr6gx</t>
+  </si>
+  <si>
+    <t>llr6dh</t>
+  </si>
+  <si>
+    <t>llr7xm</t>
+  </si>
+  <si>
+    <t>llr7gx</t>
+  </si>
+  <si>
+    <t>llr7dh</t>
+  </si>
+  <si>
+    <t>llr8xm</t>
+  </si>
+  <si>
+    <t>llr8gx</t>
+  </si>
+  <si>
+    <t>llr8dh</t>
+  </si>
+  <si>
+    <t>llr9xm</t>
+  </si>
+  <si>
+    <t>llr9gx</t>
+  </si>
+  <si>
+    <t>llr9dh</t>
+  </si>
+  <si>
+    <t>llr10xm</t>
+  </si>
+  <si>
+    <t>llr10gx</t>
+  </si>
+  <si>
+    <t>llr10dh</t>
+  </si>
+  <si>
+    <t>客户号</t>
+  </si>
+  <si>
+    <t>账户号</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>放款机构</t>
+  </si>
+  <si>
+    <t>签约金额</t>
+  </si>
+  <si>
+    <t>放款金额</t>
+  </si>
+  <si>
+    <t>产品类型</t>
+  </si>
+  <si>
+    <t>放款时间</t>
+  </si>
+  <si>
+    <t>提前结清金额</t>
+  </si>
+  <si>
+    <t>当前期数</t>
+  </si>
+  <si>
+    <t>已还期数</t>
+  </si>
+  <si>
+    <t>剩余本金</t>
+  </si>
+  <si>
+    <t>逾期利息</t>
+  </si>
+  <si>
+    <t>逾期罚息</t>
+  </si>
+  <si>
+    <t>逾期管理费</t>
+  </si>
+  <si>
+    <t>逾期本金</t>
+  </si>
+  <si>
+    <t>月还款额</t>
+  </si>
+  <si>
+    <t>账户名</t>
+  </si>
+  <si>
+    <t>银行名</t>
+  </si>
+  <si>
+    <t>银行帐号</t>
+  </si>
+  <si>
+    <t>归集公司</t>
+  </si>
+  <si>
+    <t>账龄</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>户籍电话</t>
+  </si>
+  <si>
+    <t>户籍地址</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>住宅电话</t>
+  </si>
+  <si>
+    <t>住宅地址</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公司地址</t>
+  </si>
+  <si>
+    <t>公司电话</t>
+  </si>
+  <si>
+    <t>联络人1姓名</t>
+  </si>
+  <si>
+    <t>联络人1关系</t>
+  </si>
+  <si>
+    <t>联络人1电话</t>
+  </si>
+  <si>
+    <t>联络人2姓名</t>
+  </si>
+  <si>
+    <t>联络人2关系</t>
+  </si>
+  <si>
+    <t>联络人2电话</t>
+  </si>
+  <si>
+    <t>联络人3姓名</t>
+  </si>
+  <si>
+    <t>联络人3关系</t>
+  </si>
+  <si>
+    <t>联络人3电话</t>
+  </si>
+  <si>
+    <t>联络人4姓名</t>
+  </si>
+  <si>
+    <t>联络人4关系</t>
+  </si>
+  <si>
+    <t>联络人4电话</t>
+  </si>
+  <si>
+    <t>联络人5姓名</t>
+  </si>
+  <si>
+    <t>联络人5关系</t>
+  </si>
+  <si>
+    <t>联络人5电话</t>
+  </si>
+  <si>
+    <t>联络人6姓名</t>
+  </si>
+  <si>
+    <t>联络人6关系</t>
+  </si>
+  <si>
+    <t>联络人6电话</t>
+  </si>
+  <si>
+    <t>联络人7姓名</t>
+  </si>
+  <si>
+    <t>联络人7关系</t>
+  </si>
+  <si>
+    <t>联络人7电话</t>
+  </si>
+  <si>
+    <t>联络人8姓名</t>
+  </si>
+  <si>
+    <t>联络人8关系</t>
+  </si>
+  <si>
+    <t>联络人8电话</t>
+  </si>
+  <si>
+    <t>联络人9姓名</t>
+  </si>
+  <si>
+    <t>联络人9关系</t>
+  </si>
+  <si>
+    <t>联络人9电话</t>
+  </si>
+  <si>
+    <t>联络人10姓名</t>
+  </si>
+  <si>
+    <t>联络人10关系</t>
+  </si>
+  <si>
+    <t>联络人10电话</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期违约金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未还本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_car_loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表名 : entrusted_case_report</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrustedCaseManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createdTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastModifiedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrustedCase</t>
+    <t>表名 : entrusted_case_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>gaxlh</t>
+  </si>
+  <si>
+    <t>xm</t>
+  </si>
+  <si>
+    <t>wtf</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>ajzt</t>
+  </si>
+  <si>
+    <t>zjh</t>
+  </si>
+  <si>
+    <t>zjlx</t>
+  </si>
+  <si>
+    <t>cszt</t>
+  </si>
+  <si>
+    <t>wfzt</t>
+  </si>
+  <si>
+    <t>khx</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>zhmc</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
+    <t>dah</t>
+  </si>
+  <si>
+    <t>warq</t>
+  </si>
+  <si>
+    <t>waje</t>
+  </si>
+  <si>
+    <t>ptpje</t>
+  </si>
+  <si>
+    <t>cpje</t>
+  </si>
+  <si>
+    <t>zxqk（drlxhgx）</t>
+  </si>
+  <si>
+    <t>rmb</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>csy</t>
+  </si>
+  <si>
+    <t>csyid</t>
+  </si>
+  <si>
+    <t>csybm</t>
+  </si>
+  <si>
+    <t>csqy</t>
+  </si>
+  <si>
+    <t>csxj</t>
+  </si>
+  <si>
+    <t>zhtd</t>
+  </si>
+  <si>
+    <t>yhk</t>
+  </si>
+  <si>
+    <t>fpls</t>
+  </si>
+  <si>
+    <t>fpsj</t>
+  </si>
+  <si>
+    <t>xcgjrq</t>
+  </si>
+  <si>
+    <t>gjcs</t>
+  </si>
+  <si>
+    <t>mzxs</t>
+  </si>
+  <si>
+    <t>yqzl</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>sj</t>
+  </si>
+  <si>
+    <t>jthm</t>
+  </si>
+  <si>
+    <t>dwhm</t>
+  </si>
+  <si>
+    <t>dwmc</t>
+  </si>
+  <si>
+    <t>dwdz</t>
+  </si>
+  <si>
+    <t>dwyb</t>
+  </si>
+  <si>
+    <t>jtdz</t>
+  </si>
+  <si>
+    <t>jtyb</t>
+  </si>
+  <si>
+    <t>dzddz</t>
+  </si>
+  <si>
+    <t>dzdyb</t>
+  </si>
+  <si>
+    <t>hjdyb</t>
+  </si>
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>wczje</t>
+  </si>
+  <si>
+    <t>ycsjl</t>
+  </si>
+  <si>
+    <t>bj</t>
+  </si>
+  <si>
+    <t>zdhke</t>
+  </si>
+  <si>
+    <t>xyed</t>
+  </si>
+  <si>
+    <t>tqjb</t>
+  </si>
+  <si>
+    <t>xdfl</t>
+  </si>
+  <si>
+    <t>csfl</t>
+  </si>
+  <si>
+    <t>znj</t>
+  </si>
+  <si>
+    <t>zhhkr</t>
+  </si>
+  <si>
+    <t>zhxfr</t>
+  </si>
+  <si>
+    <t>zhtxr</t>
+  </si>
+  <si>
+    <t>tkr</t>
+  </si>
+  <si>
+    <t>kkr</t>
+  </si>
+  <si>
+    <t>hkqx</t>
+  </si>
+  <si>
+    <t>lxr1xm</t>
+  </si>
+  <si>
+    <t>lxr1zjh</t>
+  </si>
+  <si>
+    <t>lxr1gx</t>
+  </si>
+  <si>
+    <t>lxr1dw</t>
+  </si>
+  <si>
+    <t>lxr1jtdh</t>
+  </si>
+  <si>
+    <t>lxr1dwdh</t>
+  </si>
+  <si>
+    <t>lxr1sj</t>
+  </si>
+  <si>
+    <t>lxr1dz</t>
+  </si>
+  <si>
+    <t>lxr2xm</t>
+  </si>
+  <si>
+    <t>lxr2zjh</t>
+  </si>
+  <si>
+    <t>lxr2gx</t>
+  </si>
+  <si>
+    <t>lxr2dw</t>
+  </si>
+  <si>
+    <t>lxr2jtdh</t>
+  </si>
+  <si>
+    <t>lxr2dwdh</t>
+  </si>
+  <si>
+    <t>lxr2sj</t>
+  </si>
+  <si>
+    <t>lxr2dz</t>
+  </si>
+  <si>
+    <t>lxr3xm</t>
+  </si>
+  <si>
+    <t>lxr3zjh</t>
+  </si>
+  <si>
+    <t>lxr3gx</t>
+  </si>
+  <si>
+    <t>lxr3dw</t>
+  </si>
+  <si>
+    <t>lxr3jtdh</t>
+  </si>
+  <si>
+    <t>lxr3dwdh</t>
+  </si>
+  <si>
+    <t>lxr3sj</t>
+  </si>
+  <si>
+    <t>lxr3dz</t>
+  </si>
+  <si>
+    <t>lxr4xm</t>
+  </si>
+  <si>
+    <t>lxr4zjh</t>
+  </si>
+  <si>
+    <t>lxr4gx</t>
+  </si>
+  <si>
+    <t>lxr4dw</t>
+  </si>
+  <si>
+    <t>lxr4jtdh</t>
+  </si>
+  <si>
+    <t>lxr4dwdh</t>
+  </si>
+  <si>
+    <t>lxr4sj</t>
+  </si>
+  <si>
+    <t>lxr4dz</t>
+  </si>
+  <si>
+    <t>lxr5xm</t>
+  </si>
+  <si>
+    <t>lxr5zj</t>
+  </si>
+  <si>
+    <t>lxr5gx</t>
+  </si>
+  <si>
+    <t>lxr5dw</t>
+  </si>
+  <si>
+    <t>lxr5jtdh</t>
+  </si>
+  <si>
+    <t>lxr5dwdh</t>
+  </si>
+  <si>
+    <t>lxr5sj</t>
+  </si>
+  <si>
+    <t>lxr5dz</t>
+  </si>
+  <si>
+    <t>lxr6xm</t>
+  </si>
+  <si>
+    <t>lxr6zj</t>
+  </si>
+  <si>
+    <t>lxr6gx</t>
+  </si>
+  <si>
+    <t>lxr6dw</t>
+  </si>
+  <si>
+    <t>lxr6jtdh</t>
+  </si>
+  <si>
+    <t>lxr6dwdh</t>
+  </si>
+  <si>
+    <t>lxr6sj</t>
+  </si>
+  <si>
+    <t>lxr6dz</t>
+  </si>
+  <si>
+    <t>bz1</t>
+  </si>
+  <si>
+    <t>bz2</t>
+  </si>
+  <si>
+    <t>bz3</t>
+  </si>
+  <si>
+    <t>bz4</t>
+  </si>
+  <si>
+    <t>bz5</t>
+  </si>
+  <si>
+    <t>bz6</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>qkye</t>
+  </si>
+  <si>
+    <t>sqdh</t>
+  </si>
+  <si>
+    <t>yqrq</t>
+  </si>
+  <si>
+    <t>cssb</t>
+  </si>
+  <si>
+    <t>wtqx</t>
+  </si>
+  <si>
+    <t>waqs</t>
+  </si>
+  <si>
+    <t>zdr</t>
+  </si>
+  <si>
+    <t>gded</t>
+  </si>
+  <si>
+    <t>zdzq</t>
+  </si>
+  <si>
+    <t>zhhke</t>
+  </si>
+  <si>
+    <t>yjtar</t>
+  </si>
+  <si>
+    <t>sfzk</t>
+  </si>
+  <si>
+    <t>fkkr</t>
+  </si>
+  <si>
+    <t>dkrq</t>
+  </si>
+  <si>
+    <t>zyqcs</t>
+  </si>
+  <si>
+    <t>dkll</t>
+  </si>
+  <si>
+    <t>myhk</t>
+  </si>
+  <si>
+    <t>wyj</t>
+  </si>
+  <si>
+    <t>cxf</t>
+  </si>
+  <si>
+    <t>dkjzr</t>
+  </si>
+  <si>
+    <t>bzj</t>
+  </si>
+  <si>
+    <t>sbdnh</t>
+  </si>
+  <si>
+    <t>sbkh</t>
+  </si>
+  <si>
+    <t>sjtar</t>
+  </si>
+  <si>
+    <t>pzh</t>
+  </si>
+  <si>
+    <t>cjh</t>
+  </si>
+  <si>
+    <t>jg</t>
+  </si>
+  <si>
+    <t>zdyxx</t>
+  </si>
+  <si>
+    <t>zxcj</t>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_credit_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个案序列号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>委托方</t>
+  </si>
+  <si>
+    <t>批次号</t>
+  </si>
+  <si>
+    <t>案件状态</t>
+  </si>
+  <si>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>催收状态</t>
+  </si>
+  <si>
+    <t>外访状态</t>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>账户名称</t>
+  </si>
+  <si>
+    <t>卡类</t>
+  </si>
+  <si>
+    <t>档案号</t>
+  </si>
+  <si>
+    <t>委案日期</t>
+  </si>
+  <si>
+    <t>委案金额</t>
+  </si>
+  <si>
+    <t>PTP金额</t>
+  </si>
+  <si>
+    <t>CP金额</t>
+  </si>
+  <si>
+    <t>最新欠款（导入利息后更新）</t>
+  </si>
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>港币</t>
+  </si>
+  <si>
+    <t>外币</t>
+  </si>
+  <si>
+    <t>催收员</t>
+  </si>
+  <si>
+    <t>催收员ID</t>
+  </si>
+  <si>
+    <t>催收员部门</t>
+  </si>
+  <si>
+    <t>催收区域</t>
+  </si>
+  <si>
+    <t>催收小结</t>
+  </si>
+  <si>
+    <t>最后通电</t>
+  </si>
+  <si>
+    <t>已还款</t>
+  </si>
+  <si>
+    <t>分配历史</t>
+  </si>
+  <si>
+    <t>分配时间</t>
+  </si>
+  <si>
+    <t>下次跟进日期</t>
+  </si>
+  <si>
+    <t>跟进次数</t>
+  </si>
+  <si>
+    <t>M值系数</t>
+  </si>
+  <si>
+    <t>逾期账龄</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>家庭号码</t>
+  </si>
+  <si>
+    <t>单位号码</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>单位地址</t>
+  </si>
+  <si>
+    <t>单位邮编</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
+  </si>
+  <si>
+    <t>家庭邮编</t>
+  </si>
+  <si>
+    <t>对账单地址</t>
+  </si>
+  <si>
+    <t>对账单邮编</t>
+  </si>
+  <si>
+    <t>户籍地邮编</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>区县</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>未出账金额</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>原催收记录</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>最低还款额</t>
+  </si>
+  <si>
+    <t>信用额度</t>
+  </si>
+  <si>
+    <t>拖欠级别</t>
+  </si>
+  <si>
+    <t>信贷分类</t>
+  </si>
+  <si>
+    <t>催收分类</t>
+  </si>
+  <si>
+    <t>滞纳金</t>
+  </si>
+  <si>
+    <t>最后还款日</t>
+  </si>
+  <si>
+    <t>最后消费日</t>
+  </si>
+  <si>
+    <t>最后提现日</t>
+  </si>
+  <si>
+    <t>停卡日</t>
+  </si>
+  <si>
+    <t>开卡日</t>
+  </si>
+  <si>
+    <t>还款期限</t>
+  </si>
+  <si>
+    <t>联系人1姓名</t>
+  </si>
+  <si>
+    <t>联系人1证件号</t>
+  </si>
+  <si>
+    <t>联系人1关系</t>
+  </si>
+  <si>
+    <t>联系人1单位</t>
+  </si>
+  <si>
+    <t>联系人1家庭电话</t>
+  </si>
+  <si>
+    <t>联系人1单位电话</t>
+  </si>
+  <si>
+    <t>联系人1手机</t>
+  </si>
+  <si>
+    <t>联系人1地址</t>
+  </si>
+  <si>
+    <t>联系人2姓名</t>
+  </si>
+  <si>
+    <t>联系人2证件号</t>
+  </si>
+  <si>
+    <t>联系人2关系</t>
+  </si>
+  <si>
+    <t>联系人2单位</t>
+  </si>
+  <si>
+    <t>联系人2家庭电话</t>
+  </si>
+  <si>
+    <t>联系人2单位电话</t>
+  </si>
+  <si>
+    <t>联系人2手机</t>
+  </si>
+  <si>
+    <t>联系人2地址</t>
+  </si>
+  <si>
+    <t>联系人3姓名</t>
+  </si>
+  <si>
+    <t>联系人3证件号</t>
+  </si>
+  <si>
+    <t>联系人3关系</t>
+  </si>
+  <si>
+    <t>联系人3单位</t>
+  </si>
+  <si>
+    <t>联系人3家庭电话</t>
+  </si>
+  <si>
+    <t>联系人3单位电话</t>
+  </si>
+  <si>
+    <t>联系人3手机</t>
+  </si>
+  <si>
+    <t>联系人3地址</t>
+  </si>
+  <si>
+    <t>联系人4姓名</t>
+  </si>
+  <si>
+    <t>联系人4证件号</t>
+  </si>
+  <si>
+    <t>联系人4关系</t>
+  </si>
+  <si>
+    <t>联系人4单位</t>
+  </si>
+  <si>
+    <t>联系人4家庭电话</t>
+  </si>
+  <si>
+    <t>联系人4单位电话</t>
+  </si>
+  <si>
+    <t>联系人4手机</t>
+  </si>
+  <si>
+    <t>联系人4地址</t>
+  </si>
+  <si>
+    <t>联系人5姓名</t>
+  </si>
+  <si>
+    <t>联系人5证件</t>
+  </si>
+  <si>
+    <t>联系人5关系</t>
+  </si>
+  <si>
+    <t>联系人5单位</t>
+  </si>
+  <si>
+    <t>联系人5家庭电话</t>
+  </si>
+  <si>
+    <t>联系人5单位电话</t>
+  </si>
+  <si>
+    <t>联系人5手机</t>
+  </si>
+  <si>
+    <t>联系人5地址</t>
+  </si>
+  <si>
+    <t>联系人6姓名</t>
+  </si>
+  <si>
+    <t>联系人6证件</t>
+  </si>
+  <si>
+    <t>联系人6关系</t>
+  </si>
+  <si>
+    <t>联系人6单位</t>
+  </si>
+  <si>
+    <t>联系人6家庭电话</t>
+  </si>
+  <si>
+    <t>联系人6单位电话</t>
+  </si>
+  <si>
+    <t>联系人6手机</t>
+  </si>
+  <si>
+    <t>联系人6地址</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>备注4</t>
+  </si>
+  <si>
+    <t>备注5</t>
+  </si>
+  <si>
+    <t>备注6</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>商户</t>
+  </si>
+  <si>
+    <t>总欠款(委案金融+公司佣金)</t>
+  </si>
+  <si>
+    <t>欠款余额</t>
+  </si>
+  <si>
+    <t>申请单号</t>
+  </si>
+  <si>
+    <t>逾期日期</t>
+  </si>
+  <si>
+    <t>催收手别</t>
+  </si>
+  <si>
+    <t>委托期限</t>
+  </si>
+  <si>
+    <t>委案期数</t>
+  </si>
+  <si>
+    <t>账单日</t>
+  </si>
+  <si>
+    <t>固定额度</t>
+  </si>
+  <si>
+    <t>账单周期</t>
+  </si>
+  <si>
+    <t>最后还款额</t>
+  </si>
+  <si>
+    <t>预计退案日</t>
+  </si>
+  <si>
+    <t>是否主卡</t>
+  </si>
+  <si>
+    <t>副卡卡人</t>
+  </si>
+  <si>
+    <t>贷款日期</t>
+  </si>
+  <si>
+    <t>曾逾期次数</t>
+  </si>
+  <si>
+    <t>贷款利率</t>
+  </si>
+  <si>
+    <t>每月还款</t>
+  </si>
+  <si>
+    <t>违约金</t>
+  </si>
+  <si>
+    <t>超限费</t>
+  </si>
+  <si>
+    <t>贷款截止日</t>
+  </si>
+  <si>
+    <t>保证金</t>
+  </si>
+  <si>
+    <t>社保电脑号</t>
+  </si>
+  <si>
+    <t>社保卡号</t>
+  </si>
+  <si>
+    <t>实际退案日</t>
+  </si>
+  <si>
+    <t>牌照号</t>
+  </si>
+  <si>
+    <t>车架号</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>自定义信息</t>
+  </si>
+  <si>
+    <t>最新催记</t>
+  </si>
+  <si>
+    <t>内部管理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否精确到日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般填写什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态有哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型有哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体填写什么？‘是’，‘否’？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体填写什么？‘是’，‘否’？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体填写什么，是天日期还是一些说明？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是已还款金额吗？单位是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是精确到时分秒吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别都有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体都会填什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体会填什么信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkuirq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案类型 (0:车贷，1:信贷，2:信用卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zqk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_credit_loan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +2510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +2547,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +2576,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -694,11 +2822,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -731,11 +2868,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,10 +3204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,7 +3248,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1122,7 +3286,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1151,35 +3315,35 @@
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1207,24 +3371,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1250,7 +3417,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1278,12 +3445,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -1294,24 +3461,24 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1324,12 +3491,12 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1355,35 +3522,35 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1399,69 +3566,3816 @@
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="24" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="B175" s="38"/>
+      <c r="C175" s="38"/>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D187" s="37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D188" s="37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D193" s="37" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D200" s="37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B201" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D201" s="37" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B203" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B204" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B205" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B206" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B210" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B216" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B219" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B221" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="B224" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B228" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="B229" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B230" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B231" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C231" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B232" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B233" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B234" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B235" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C235" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B237" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="D237" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B238" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C238" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B239" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C239" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="D239" s="37" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C240" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="D240" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C241" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="D241" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B242" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="D242" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C243" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="D243" s="37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="D244" s="37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C245" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="D245" s="37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D246" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C247" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D247" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C248" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="D248" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D249" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="D250" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="D251" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C252" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="D252" s="37" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="D253" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="B255" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C256" s="26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B257" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C260" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C268" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C271" s="26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C272" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C273" s="26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C275" s="26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="B276" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C276" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C279" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B285" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B287" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C288" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B294" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B297" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B299" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C300" s="26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C301" s="26" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B302" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C302" s="26" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B303" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C304" s="26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B305" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C305" s="26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A306" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A307" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A308" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="B308" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C308" s="26" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A309" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="C309" s="26" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A310" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C310" s="26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A311" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B311" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C311" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="D311" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A312" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B312" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C312" s="26" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A313" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C313" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="B314" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C314" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D314" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="C315" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C316" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="D316" s="36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A317" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B317" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C317" s="26" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A318" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B318" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A319" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B319" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A320" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B320" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="D320" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B321" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C321" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="D321" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="B322" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C322" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="B323" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C323" s="26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B325" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C325" s="26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A326" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B326" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="C326" s="26" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A327" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B327" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C327" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A328" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B328" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="B329" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A330" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="D331" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A332" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B332" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C332" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D332" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A333" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B333" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C333" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D333" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A334" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C334" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D334" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A335" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B335" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C335" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D335" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A336" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B336" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C336" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="D336" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A337" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="C337" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="D337" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A338" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B338" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C338" s="26" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A339" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B339" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C339" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="D339" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A340" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="B340" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C340" s="26" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A341" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B341" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C341" s="26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A342" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B342" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C342" s="26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A343" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C343" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A344" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="B344" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C344" s="26" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A345" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B345" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C345" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A346" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C346" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D346" s="36" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A347" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="B347" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C347" s="26" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="B348" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C348" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="D348" s="36" t="s">
+        <v>757</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A175:C175"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,6 +7385,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1485,7 +7400,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1536,7 +7451,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
@@ -1547,7 +7462,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1558,43 +7473,43 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1608,10 +7523,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1657,7 +7573,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1667,7 +7583,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1691,34 +7607,34 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1736,7 +7652,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1747,7 +7663,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1756,10 +7672,10 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1770,7 +7686,7 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1799,24 +7715,24 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1824,4 +7740,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="768">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2503,6 +2503,22 @@
   </si>
   <si>
     <t>表名 : entrusted_case_credit_loan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3374,8 +3390,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:C175"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3453,7 +3469,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>765</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -3482,9 +3498,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
@@ -7388,7 +7410,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
@@ -7526,7 +7548,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="777">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2552,10 +2552,6 @@
   </si>
   <si>
     <t>batchNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2937,6 +2933,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2949,8 +2947,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3426,7 +3422,7 @@
   <dimension ref="A1:D352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3439,11 +3435,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3527,10 +3523,10 @@
         <v>775</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>776</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3561,11 +3557,11 @@
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -3689,18 +3685,18 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -4571,11 +4567,11 @@
     </row>
     <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="32" t="s">
         <v>761</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
@@ -5407,11 +5403,11 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="30" t="s">
+      <c r="A178" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="s">
@@ -5533,7 +5529,7 @@
       <c r="C189" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D189" s="34" t="s">
+      <c r="D189" s="30" t="s">
         <v>742</v>
       </c>
     </row>
@@ -5547,7 +5543,7 @@
       <c r="C190" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="30" t="s">
         <v>742</v>
       </c>
     </row>
@@ -5605,7 +5601,7 @@
       <c r="C195" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D195" s="34" t="s">
+      <c r="D195" s="30" t="s">
         <v>743</v>
       </c>
     </row>
@@ -5641,7 +5637,7 @@
       <c r="C198" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D198" s="34" t="s">
+      <c r="D198" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5655,7 +5651,7 @@
       <c r="C199" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D199" s="34" t="s">
+      <c r="D199" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5669,7 +5665,7 @@
       <c r="C200" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D200" s="34" t="s">
+      <c r="D200" s="30" t="s">
         <v>750</v>
       </c>
     </row>
@@ -5683,7 +5679,7 @@
       <c r="C201" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="D201" s="34" t="s">
+      <c r="D201" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5697,7 +5693,7 @@
       <c r="C202" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D202" s="34" t="s">
+      <c r="D202" s="30" t="s">
         <v>744</v>
       </c>
     </row>
@@ -5711,7 +5707,7 @@
       <c r="C203" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D203" s="34" t="s">
+      <c r="D203" s="30" t="s">
         <v>744</v>
       </c>
     </row>
@@ -5725,7 +5721,7 @@
       <c r="C204" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="30" t="s">
         <v>745</v>
       </c>
     </row>
@@ -5794,7 +5790,7 @@
       <c r="C210" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="30" t="s">
         <v>746</v>
       </c>
     </row>
@@ -5808,7 +5804,7 @@
       <c r="C211" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D211" s="34" t="s">
+      <c r="D211" s="30" t="s">
         <v>747</v>
       </c>
     </row>
@@ -5822,7 +5818,7 @@
       <c r="C212" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="D212" s="34" t="s">
+      <c r="D212" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5836,7 +5832,7 @@
       <c r="C213" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D213" s="34" t="s">
+      <c r="D213" s="30" t="s">
         <v>749</v>
       </c>
     </row>
@@ -5872,7 +5868,7 @@
       <c r="C216" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="30" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5886,7 +5882,7 @@
       <c r="C217" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="D217" s="34" t="s">
+      <c r="D217" s="30" t="s">
         <v>751</v>
       </c>
     </row>
@@ -6131,7 +6127,7 @@
       <c r="C239" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D239" s="34" t="s">
+      <c r="D239" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6145,7 +6141,7 @@
       <c r="C240" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="D240" s="34" t="s">
+      <c r="D240" s="30" t="s">
         <v>732</v>
       </c>
     </row>
@@ -6159,7 +6155,7 @@
       <c r="C241" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="D241" s="34" t="s">
+      <c r="D241" s="30" t="s">
         <v>732</v>
       </c>
     </row>
@@ -6173,7 +6169,7 @@
       <c r="C242" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D242" s="34" t="s">
+      <c r="D242" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6187,7 +6183,7 @@
       <c r="C243" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D243" s="34" t="s">
+      <c r="D243" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6201,7 +6197,7 @@
       <c r="C244" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D244" s="34" t="s">
+      <c r="D244" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6215,7 +6211,7 @@
       <c r="C245" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D245" s="34" t="s">
+      <c r="D245" s="30" t="s">
         <v>752</v>
       </c>
     </row>
@@ -6229,7 +6225,7 @@
       <c r="C246" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D246" s="34" t="s">
+      <c r="D246" s="30" t="s">
         <v>753</v>
       </c>
     </row>
@@ -6243,7 +6239,7 @@
       <c r="C247" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="D247" s="34" t="s">
+      <c r="D247" s="30" t="s">
         <v>753</v>
       </c>
     </row>
@@ -6257,7 +6253,7 @@
       <c r="C248" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D248" s="34" t="s">
+      <c r="D248" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6271,7 +6267,7 @@
       <c r="C249" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="D249" s="34" t="s">
+      <c r="D249" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6285,7 +6281,7 @@
       <c r="C250" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="30" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6299,7 +6295,7 @@
       <c r="C251" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D251" s="34" t="s">
+      <c r="D251" s="30" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6313,7 +6309,7 @@
       <c r="C252" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="D252" s="34" t="s">
+      <c r="D252" s="30" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6327,7 +6323,7 @@
       <c r="C253" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="D253" s="34" t="s">
+      <c r="D253" s="30" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6341,7 +6337,7 @@
       <c r="C254" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D254" s="34" t="s">
+      <c r="D254" s="30" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6355,7 +6351,7 @@
       <c r="C255" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D255" s="34" t="s">
+      <c r="D255" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6996,7 +6992,7 @@
       <c r="C313" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D313" s="34" t="s">
+      <c r="D313" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7032,7 +7028,7 @@
       <c r="C316" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="D316" s="34" t="s">
+      <c r="D316" s="30" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7057,7 +7053,7 @@
       <c r="C318" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D318" s="35" t="s">
+      <c r="D318" s="31" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7104,7 +7100,7 @@
       <c r="C322" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D322" s="34" t="s">
+      <c r="D322" s="30" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7118,7 +7114,7 @@
       <c r="C323" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="D323" s="34" t="s">
+      <c r="D323" s="30" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7231,7 +7227,7 @@
       <c r="C333" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D333" s="34" t="s">
+      <c r="D333" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7245,7 +7241,7 @@
       <c r="C334" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D334" s="34" t="s">
+      <c r="D334" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7259,7 +7255,7 @@
       <c r="C335" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="D335" s="34" t="s">
+      <c r="D335" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7273,7 +7269,7 @@
       <c r="C336" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D336" s="34" t="s">
+      <c r="D336" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7287,7 +7283,7 @@
       <c r="C337" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D337" s="34" t="s">
+      <c r="D337" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7301,7 +7297,7 @@
       <c r="C338" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D338" s="34" t="s">
+      <c r="D338" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7315,7 +7311,7 @@
       <c r="C339" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D339" s="34" t="s">
+      <c r="D339" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7340,7 +7336,7 @@
       <c r="C341" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="D341" s="34" t="s">
+      <c r="D341" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7420,7 +7416,7 @@
       <c r="C348" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="D348" s="35" t="s">
+      <c r="D348" s="31" t="s">
         <v>755</v>
       </c>
     </row>
@@ -7445,7 +7441,7 @@
       <c r="C350" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D350" s="35" t="s">
+      <c r="D350" s="31" t="s">
         <v>755</v>
       </c>
     </row>
@@ -7608,11 +7604,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7860,10 +7856,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="779">
   <si>
     <t>from</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2556,6 +2556,14 @@
   </si>
   <si>
     <t>批次号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键 (批次号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_batch_creator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3419,7 +3427,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D352"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -3436,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>413</v>
+        <v>778</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3460,421 +3468,401 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="15" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>164</v>
+        <v>232</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>768</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>165</v>
+        <v>769</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>257</v>
@@ -3882,783 +3870,776 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C51" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="25" t="s">
+      <c r="B62" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="25" t="s">
+      <c r="B64" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>757</v>
+        <v>121</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>757</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>758</v>
+        <v>144</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>756</v>
+        <v>149</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>156</v>
+        <v>758</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>6</v>
+      <c r="A106" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>397</v>
+        <v>155</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>768</v>
+        <v>156</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>770</v>
+        <v>255</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="C109" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>338</v>
+      <c r="A113" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>257</v>
@@ -4666,49 +4647,55 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>275</v>
+        <v>768</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>398</v>
+        <v>769</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>340</v>
+        <v>770</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>257</v>
@@ -4716,55 +4703,55 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>398</v>
+        <v>236</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D121" s="29" t="s">
         <v>257</v>
@@ -4772,13 +4759,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>257</v>
@@ -4786,13 +4773,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>257</v>
@@ -4800,13 +4787,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D124" s="29" t="s">
         <v>257</v>
@@ -4814,1009 +4801,1003 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D125" s="29" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>403</v>
+        <v>346</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D134" s="29" t="s">
-        <v>257</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>290</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>180</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>404</v>
+        <v>242</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>405</v>
+        <v>236</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>406</v>
+        <v>236</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>408</v>
+        <v>242</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="B178" s="32"/>
-      <c r="C178" s="32"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>6</v>
+      <c r="A179" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>767</v>
+        <v>331</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>10</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>768</v>
+        <v>332</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>769</v>
+        <v>408</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>771</v>
+        <v>394</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>766</v>
+        <v>333</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>568</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="30" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>569</v>
+      <c r="A186" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>418</v>
+        <v>767</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>570</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>419</v>
+        <v>768</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>236</v>
+        <v>769</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>571</v>
+        <v>771</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>420</v>
+        <v>766</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>723</v>
+        <v>236</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>742</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
+      </c>
+      <c r="D194" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>145</v>
+        <v>419</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>743</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>236</v>
+        <v>723</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>579</v>
+        <v>337</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D198" s="30" t="s">
-        <v>257</v>
+        <v>744</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>257</v>
+        <v>744</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D201" s="30" t="s">
-        <v>257</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>431</v>
+        <v>145</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>724</v>
+        <v>242</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>744</v>
+        <v>577</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="D203" s="30" t="s">
-        <v>744</v>
+        <v>578</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>745</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
+      </c>
+      <c r="D206" s="30" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
+      </c>
+      <c r="D207" s="30" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>590</v>
+        <v>583</v>
+      </c>
+      <c r="D208" s="30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>236</v>
+        <v>724</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D210" s="30" t="s">
-        <v>746</v>
+        <v>585</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D211" s="30" t="s">
-        <v>747</v>
+        <v>586</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D212" s="30" t="s">
         <v>258</v>
@@ -5824,308 +5805,314 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>748</v>
+        <v>250</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D216" s="30" t="s">
-        <v>258</v>
+        <v>591</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D217" s="30" t="s">
-        <v>751</v>
+        <v>592</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>144</v>
+        <v>442</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>236</v>
+        <v>748</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>455</v>
+        <v>144</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>360</v>
+        <v>607</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>134</v>
+        <v>455</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>204</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
+      </c>
+      <c r="D235" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
+      </c>
+      <c r="D236" s="30" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>111</v>
+        <v>458</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>180</v>
+        <v>612</v>
+      </c>
+      <c r="D237" s="30" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
+      </c>
+      <c r="D238" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>618</v>
+        <v>360</v>
       </c>
       <c r="D239" s="30" t="s">
         <v>257</v>
@@ -6133,69 +6120,69 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D240" s="30" t="s">
-        <v>732</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>465</v>
+        <v>134</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>620</v>
+        <v>204</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>155</v>
+        <v>461</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>257</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>257</v>
+        <v>753</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>467</v>
+        <v>111</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>725</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>623</v>
+        <v>180</v>
       </c>
       <c r="D244" s="30" t="s">
         <v>257</v>
@@ -6203,83 +6190,83 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>752</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>469</v>
+        <v>135</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D247" s="30" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>409</v>
+        <v>239</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>257</v>
+        <v>730</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>472</v>
+        <v>155</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D249" s="30" t="s">
-        <v>257</v>
+        <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>284</v>
+        <v>466</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>731</v>
+        <v>251</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>348</v>
+        <v>622</v>
       </c>
       <c r="D250" s="30" t="s">
         <v>730</v>
@@ -6287,945 +6274,945 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>730</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="D252" s="30" t="s">
-        <v>730</v>
+        <v>624</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>729</v>
+        <v>239</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D253" s="30" t="s">
-        <v>730</v>
+        <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="D254" s="30" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D255" s="30" t="s">
-        <v>257</v>
+        <v>627</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>479</v>
+        <v>284</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>239</v>
+        <v>731</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>635</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>236</v>
+        <v>728</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>733</v>
+        <v>233</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>236</v>
+        <v>733</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>236</v>
+        <v>733</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
+      </c>
+      <c r="D309" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="D312" s="30" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>734</v>
+        <v>251</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="D313" s="30" t="s">
-        <v>257</v>
+        <v>684</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>760</v>
+        <v>529</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>692</v>
+        <v>685</v>
+      </c>
+      <c r="D314" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D316" s="30" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>723</v>
+        <v>251</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="D318" s="31" t="s">
-        <v>257</v>
+        <v>689</v>
+      </c>
+      <c r="D318" s="30" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>727</v>
+        <v>236</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>173</v>
+        <v>690</v>
+      </c>
+      <c r="D319" s="30" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>239</v>
+        <v>734</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>541</v>
+        <v>760</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>735</v>
+        <v>239</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>282</v>
+        <v>536</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>735</v>
+        <v>239</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D322" s="30" t="s">
-        <v>754</v>
+        <v>693</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D323" s="30" t="s">
-        <v>754</v>
+        <v>694</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>239</v>
+        <v>723</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>545</v>
+        <v>104</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>702</v>
+        <v>173</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>236</v>
+        <v>735</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>548</v>
+        <v>282</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>236</v>
+        <v>735</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>705</v>
+        <v>346</v>
+      </c>
+      <c r="D329" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>736</v>
+        <v>233</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>706</v>
+        <v>699</v>
+      </c>
+      <c r="D330" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>283</v>
+        <v>543</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>347</v>
+        <v>700</v>
+      </c>
+      <c r="D331" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>108</v>
+        <v>544</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>177</v>
+        <v>701</v>
+      </c>
+      <c r="D332" s="30" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>232</v>
+        <v>726</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D333" s="30" t="s">
         <v>257</v>
@@ -7233,13 +7220,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>737</v>
+        <v>233</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D334" s="30" t="s">
         <v>257</v>
@@ -7247,13 +7234,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D335" s="30" t="s">
         <v>257</v>
@@ -7261,27 +7248,24 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>105</v>
+        <v>548</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D336" s="30" t="s">
-        <v>257</v>
+        <v>705</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>288</v>
+        <v>549</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>351</v>
+        <v>706</v>
       </c>
       <c r="D337" s="30" t="s">
         <v>257</v>
@@ -7289,192 +7273,261 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D338" s="30" t="s">
-        <v>257</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D341" s="30" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>739</v>
+        <v>239</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>713</v>
+        <v>174</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>557</v>
+        <v>288</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>714</v>
+        <v>351</v>
+      </c>
+      <c r="D344" s="31" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>558</v>
+        <v>285</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>715</v>
+        <v>349</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>559</v>
+        <v>286</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>741</v>
+        <v>239</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>716</v>
+        <v>350</v>
+      </c>
+      <c r="D346" s="31" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>133</v>
+        <v>553</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>203</v>
+        <v>710</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>242</v>
+        <v>738</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="D348" s="31" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>236</v>
+        <v>739</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D350" s="31" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B358" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C351" s="4" t="s">
+      <c r="C358" s="4" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="5" t="s">
+    <row r="359" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B352" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C352" s="7" t="s">
+      <c r="B359" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C359" s="7" t="s">
         <v>721</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -18,11 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="779">
-  <si>
-    <t>from</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="781">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +283,6 @@
   </si>
   <si>
     <t>最近修改人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2564,6 +2552,26 @@
   </si>
   <si>
     <t>表名 : entrusted_case_batch_creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3274,64 +3282,64 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3341,75 +3349,75 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3429,7 +3437,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3444,42 +3452,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3489,119 +3497,119 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>762</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3611,3912 +3619,3912 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="C113" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="D113" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
       <c r="D185" s="30" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="C186" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="D186" s="30" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D194" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D198" s="30" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D206" s="30" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D209" s="30" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D237" s="30" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D240" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D244" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D247" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D249" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D250" s="30" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D314" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D329" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D330" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D331" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D332" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D333" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D334" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D335" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D344" s="31" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D346" s="31" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -7538,10 +7546,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7552,120 +7560,131 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>776</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>777</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+    </row>
+    <row r="12" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7690,42 +7709,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7735,99 +7754,99 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -7838,53 +7857,53 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7910,64 +7929,64 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="784">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,14 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色包含:
-ROLE_ADMIN,
-ROLE_MANAGER,
-ROLE_INSIDE_STAFF, 
-ROLE_OUTSIDE_STAFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2572,6 +2564,27 @@
   </si>
   <si>
     <t>come</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色包含:
+ROLE_ADMIN（管理层）,
+ROLE_INSIDE_MANAGER（内勤领导）,
+ROLE_INSIDE_STAFF（内勤）, 
+ROLE_OUTSIDE_MANAGER（业务领导）,
+ROLE_OUTSIDE_STAFF（业务员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3268,11 +3281,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3400,30 +3411,41 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3437,7 +3459,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A340" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3452,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3476,12 +3498,12 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
@@ -3497,7 +3519,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -3554,15 +3576,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
@@ -3570,7 +3592,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>36</v>
@@ -3581,18 +3603,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -3603,13 +3625,13 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>761</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3619,7 +3641,7 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -3662,21 +3684,21 @@
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3703,7 +3725,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
@@ -3714,7 +3736,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>36</v>
@@ -3725,7 +3747,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>36</v>
@@ -3745,16 +3767,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -3772,869 +3794,869 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -4650,826 +4672,826 @@
         <v>5</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>767</v>
-      </c>
       <c r="D115" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
       <c r="D185" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5483,15 +5505,15 @@
         <v>5</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>9</v>
@@ -5499,2032 +5521,2032 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>766</v>
-      </c>
       <c r="C188" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D194" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D196" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D198" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D206" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D209" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D237" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D240" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D242" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D244" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D247" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D248" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D249" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D250" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D251" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D309" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D312" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D314" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D318" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D319" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D329" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D330" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D331" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D332" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D333" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D334" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D335" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D344" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D346" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -7548,8 +7570,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7589,7 +7611,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -7611,7 +7633,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -7622,13 +7644,13 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7655,7 +7677,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -7698,7 +7720,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7736,7 +7758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -7744,7 +7766,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>70</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7778,18 +7800,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7834,7 +7856,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -7843,7 +7865,7 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
@@ -7897,7 +7919,7 @@
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>6</v>
@@ -7929,16 +7951,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -7946,15 +7968,15 @@
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -7962,7 +7984,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -7970,7 +7992,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -7978,15 +8000,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
     <sheet name="委案" sheetId="4" r:id="rId2"/>
     <sheet name="消息" sheetId="1" r:id="rId3"/>
     <sheet name="权限" sheetId="3" r:id="rId4"/>
-    <sheet name="备注" sheetId="5" r:id="rId5"/>
+    <sheet name="电话" sheetId="6" r:id="rId5"/>
+    <sheet name="备注" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="797">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2518,12 +2519,6 @@
   </si>
   <si>
     <t>委案编码(00 + 00000001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：
-1)附件路径构成 /REPORT/entrusted_case/creator/report   eg. /REPORT/1/2/1
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2585,6 +2580,67 @@
   </si>
   <si>
     <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称为 collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : phone_records</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话时长(毫秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话记录存放路径：/PHONE_RECORDS/number/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:呼入
+1:呼出
+2:未接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1)附件路径构成 /REPORT/entrusted_case/creator/report   eg. /REPORT/1/2/1
+2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]
+3) 通话记录附件名称为 phone:xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2665,7 +2721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2913,11 +2969,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2976,6 +3043,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3283,7 +3358,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3411,13 +3488,13 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3459,8 +3536,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3474,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -3498,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3581,7 +3658,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>786</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>759</v>
@@ -3603,13 +3680,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3725,7 +3802,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
@@ -3767,9 +3844,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -7571,7 +7648,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7611,7 +7688,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -7644,13 +7721,13 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7677,7 +7754,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -7720,7 +7797,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7766,7 +7843,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7937,8 +8014,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>794</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -7946,76 +8142,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="36"/>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B3" s="35"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+    <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="795">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,9 +369,6 @@
     <t>xh</t>
   </si>
   <si>
-    <t>wwrq</t>
-  </si>
-  <si>
     <t>wwdqr</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>khsfzh</t>
   </si>
   <si>
-    <t>wwzt</t>
-  </si>
-  <si>
     <t>wfqs</t>
   </si>
   <si>
@@ -564,9 +558,6 @@
     <t>bz</t>
   </si>
   <si>
-    <t>wwjg</t>
-  </si>
-  <si>
     <t>pcode</t>
   </si>
   <si>
@@ -801,101 +792,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为整数？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么意思？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1402,9 +1377,6 @@
     <t>wtf</t>
   </si>
   <si>
-    <t>pch</t>
-  </si>
-  <si>
     <t>ajzt</t>
   </si>
   <si>
@@ -1546,9 +1518,6 @@
     <t>nl</t>
   </si>
   <si>
-    <t>wczje</t>
-  </si>
-  <si>
     <t>ycsjl</t>
   </si>
   <si>
@@ -2350,18 +2319,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否精确到日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般填写什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2398,59 +2359,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态有哪些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型有哪些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体填写什么？‘是’，‘否’？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体填写什么？‘是’，‘否’？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体填写什么，是天日期还是一些说明？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是已还款金额吗？单位是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是精确到时分秒吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别都有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体都会填什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体会填什么信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2641,6 +2550,91 @@
 1)附件路径构成 /REPORT/entrusted_case/creator/report   eg. /REPORT/1/2/1
 2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]
 3) 通话记录附件名称为 phone:xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外机构</t>
+  </si>
+  <si>
+    <t>委外金额</t>
+  </si>
+  <si>
+    <t>已还金额</t>
+  </si>
+  <si>
+    <t>pch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号（委外机构+委外日期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wczje</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2701,7 +2695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2714,14 +2708,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2980,11 +2968,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3028,9 +3094,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3046,11 +3128,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3488,13 +3565,13 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3534,10 +3611,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3545,16 +3622,15 @@
     <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3575,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3595,11 +3671,11 @@
       <c r="C5" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -3653,15 +3729,15 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>26</v>
@@ -3680,13 +3756,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3702,13 +3778,13 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,11 +3793,11 @@
       <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -3802,7 +3878,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
@@ -3845,20 +3921,20 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>3</v>
       </c>
@@ -3869,3770 +3945,3734 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>155</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>167</v>
+      <c r="A51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>168</v>
+      <c r="A52" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C64" s="25" t="s">
+      <c r="B71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="25" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="25" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="25" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="25" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C69" s="25" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="25" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="25" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C72" s="25" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>729</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="25" t="s">
+      <c r="C113" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+    </row>
+    <row r="118" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D110" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>176</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>401</v>
+        <v>230</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>363</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>365</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>404</v>
+        <v>234</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B195" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="B197" s="42"/>
+      <c r="C197" s="42"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+      <c r="B210" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="32" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="30" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B186" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C190" s="4" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B191" s="3" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D195" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D196" s="30" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D197" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C198" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="D198" s="30" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C199" s="4" t="s">
+      <c r="B226" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D199" s="30" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C200" s="4" t="s">
+      <c r="B227" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D200" s="30" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C201" s="4" t="s">
+      <c r="B228" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C202" s="4" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C203" s="4" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C204" s="4" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C205" s="4" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C206" s="4" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D206" s="30" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C207" s="4" t="s">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C234" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="D207" s="30" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C208" s="4" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D208" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C209" s="4" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D209" s="30" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C210" s="4" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D212" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D213" s="30" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D235" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D236" s="30" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D237" s="30" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D238" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>294</v>
+        <v>431</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D239" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>232</v>
+        <v>727</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D240" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>130</v>
+        <v>433</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D241" s="30" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D242" s="30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D243" s="30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D244" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>459</v>
+        <v>138</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D245" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D246" s="30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D247" s="30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D248" s="30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>151</v>
+        <v>440</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D249" s="30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="D250" s="30" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>721</v>
+        <v>228</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="D251" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>405</v>
+        <v>228</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>727</v>
+        <v>228</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>724</v>
+        <v>228</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>470</v>
+        <v>128</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>626</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>725</v>
+        <v>228</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>473</v>
+        <v>105</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>629</v>
+        <v>173</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>475</v>
+        <v>129</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>477</v>
+        <v>794</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>478</v>
+        <v>149</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>729</v>
+        <v>228</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>729</v>
+        <v>243</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>232</v>
+        <v>712</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>232</v>
+        <v>398</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>486</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>232</v>
+        <v>717</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>642</v>
+        <v>337</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>232</v>
+        <v>715</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>232</v>
+        <v>716</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>232</v>
+        <v>718</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>232</v>
+        <v>718</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B304" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C304" s="4" t="s">
+      <c r="B331" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C331" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C305" s="4" t="s">
+      <c r="B332" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C332" s="4" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B306" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C306" s="4" t="s">
+      <c r="B333" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C333" s="4" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B307" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C307" s="4" t="s">
+      <c r="B334" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C334" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B308" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C308" s="4" t="s">
+      <c r="B335" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C335" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C309" s="4" t="s">
+      <c r="B336" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D309" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B310" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C310" s="4" t="s">
+      <c r="B337" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C337" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B311" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C311" s="4" t="s">
+      <c r="B338" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B312" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="D312" s="30" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+      <c r="B340" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B313" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+      <c r="B341" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B314" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D314" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+      <c r="B342" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B315" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
+      <c r="B343" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B316" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
+      <c r="B345" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B317" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
+      <c r="B346" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B318" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="D318" s="30" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+      <c r="B348" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B319" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D319" s="30" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
+      <c r="B349" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C321" s="4" t="s">
+      <c r="B350" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B322" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C322" s="4" t="s">
+      <c r="B351" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C351" s="4" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C323" s="4" t="s">
+      <c r="B352" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D329" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D330" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="D331" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="D332" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="D333" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D334" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="D335" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="D337" s="30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C339" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D344" s="31" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D346" s="31" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>737</v>
+        <v>228</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>129</v>
+        <v>535</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>199</v>
+        <v>692</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>238</v>
+        <v>721</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>557</v>
+        <v>272</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>714</v>
+        <v>336</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>558</v>
+        <v>102</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>715</v>
+        <v>170</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B359" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C359" s="7" t="s">
-        <v>717</v>
+      <c r="C363" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A197:C197"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A117:C117"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A20:C20"/>
   </mergeCells>
@@ -7688,7 +7728,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -7721,13 +7761,13 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7754,7 +7794,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -7775,11 +7815,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7843,7 +7883,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8016,7 +8056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8026,11 +8066,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>784</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="A1" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -8062,18 +8102,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>788</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>785</v>
+        <v>764</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8083,36 +8123,36 @@
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>787</v>
+      <c r="C6" s="29" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>789</v>
+      <c r="C7" s="29" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>792</v>
+      <c r="C8" s="29" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -8120,8 +8160,8 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>794</v>
+      <c r="A11" s="31" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -8146,23 +8186,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="35"/>
+      <c r="A3" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8170,15 +8210,15 @@
         <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -8186,7 +8226,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8194,7 +8234,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8202,15 +8242,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -3613,7 +3613,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8056,7 +8056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="798">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2635,6 +2635,18 @@
   </si>
   <si>
     <t>wczje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3050,7 +3062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3128,6 +3140,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3611,10 +3624,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C377"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4837,2832 +4850,2843 @@
         <v>386</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="C119" s="41" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>742</v>
+      <c r="A120" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>556</v>
+        <v>742</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>773</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>220</v>
+        <v>775</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>786</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>346</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>173</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>228</v>
+        <v>393</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>394</v>
+        <v>228</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>228</v>
+        <v>394</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>234</v>
+        <v>395</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>396</v>
+        <v>234</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
+    <row r="196" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C195" s="7" t="s">
+      <c r="B196" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="42" t="s">
+    <row r="198" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="B197" s="42"/>
-      <c r="C197" s="42"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="16" t="s">
+      <c r="B198" s="42"/>
+      <c r="C198" s="42"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B199" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C199" s="18" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>741</v>
+        <v>225</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>743</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>18</v>
+        <v>741</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>782</v>
+        <v>18</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>18</v>
+        <v>782</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>773</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>783</v>
+        <v>18</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>231</v>
+        <v>783</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>220</v>
+        <v>775</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>709</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>403</v>
+        <v>738</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>261</v>
+        <v>408</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>710</v>
+        <v>228</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>326</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>228</v>
+        <v>710</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>413</v>
+        <v>139</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>711</v>
+        <v>231</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>231</v>
+        <v>711</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>727</v>
+        <v>243</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>226</v>
+        <v>727</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>138</v>
+        <v>436</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>349</v>
+        <v>600</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>601</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>197</v>
+        <v>601</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>449</v>
+        <v>128</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>602</v>
+        <v>197</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>173</v>
+        <v>603</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>604</v>
+        <v>173</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>129</v>
+        <v>451</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>452</v>
+        <v>129</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>794</v>
+        <v>452</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>149</v>
+        <v>794</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>712</v>
+        <v>243</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>231</v>
+        <v>712</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>273</v>
+        <v>459</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>717</v>
+        <v>228</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>337</v>
+        <v>615</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>460</v>
+        <v>273</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>616</v>
+        <v>337</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>226</v>
+        <v>715</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>716</v>
+        <v>226</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>226</v>
+        <v>716</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>718</v>
+        <v>228</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>718</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>228</v>
+        <v>718</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>719</v>
+        <v>228</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>732</v>
+        <v>522</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>231</v>
+        <v>719</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>523</v>
+        <v>732</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>710</v>
+        <v>226</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>166</v>
+        <v>683</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>527</v>
+        <v>98</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>231</v>
+        <v>714</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>684</v>
+        <v>166</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>720</v>
+        <v>231</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>335</v>
+        <v>685</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>529</v>
+        <v>271</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>226</v>
+        <v>720</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>686</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>713</v>
+        <v>231</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>226</v>
+        <v>713</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>721</v>
+        <v>228</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>272</v>
+        <v>536</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>231</v>
+        <v>721</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>336</v>
+        <v>693</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>537</v>
+        <v>102</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>694</v>
+        <v>170</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>722</v>
+        <v>225</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>231</v>
+        <v>722</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>99</v>
+        <v>539</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>167</v>
+        <v>696</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>713</v>
+        <v>231</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>232</v>
+        <v>713</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>540</v>
+        <v>275</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>697</v>
+        <v>339</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>723</v>
+        <v>231</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>231</v>
+        <v>724</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>725</v>
+        <v>231</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>228</v>
+        <v>725</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>726</v>
+        <v>228</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>127</v>
+        <v>546</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>228</v>
+        <v>726</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>196</v>
+        <v>703</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>547</v>
+        <v>127</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>704</v>
+        <v>196</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="C377" s="4" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="5" t="s">
+    <row r="378" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B377" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C377" s="7" t="s">
+      <c r="B378" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C378" s="7" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7670,7 +7694,7 @@
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A198:C198"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="A35:C35"/>
@@ -8056,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="800">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2647,6 +2647,14 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退案日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3125,6 +3133,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3140,7 +3149,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3624,10 +3632,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:C379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3639,11 +3647,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3684,11 +3692,11 @@
       <c r="C5" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -3806,11 +3814,11 @@
       <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
@@ -3934,18 +3942,18 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
     </row>
     <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -4828,11 +4836,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="43" t="s">
         <v>733</v>
       </c>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
     </row>
     <row r="118" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="36" t="s">
@@ -4863,7 +4871,7 @@
       <c r="B120" s="33" t="s">
         <v>796</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C120" s="42" t="s">
         <v>797</v>
       </c>
     </row>
@@ -5704,11 +5712,11 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="42" t="s">
+      <c r="A198" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="B198" s="42"/>
-      <c r="C198" s="42"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="43"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
@@ -5734,1959 +5742,1970 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>741</v>
+        <v>225</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>18</v>
+        <v>741</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>556</v>
+        <v>743</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>782</v>
+        <v>18</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>153</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>18</v>
+        <v>782</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>773</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>783</v>
+        <v>18</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>231</v>
+        <v>783</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>220</v>
+        <v>775</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>403</v>
+        <v>793</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>553</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>261</v>
+        <v>408</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>710</v>
+        <v>228</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>326</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>228</v>
+        <v>710</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>139</v>
+        <v>412</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>413</v>
+        <v>139</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>711</v>
+        <v>231</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>231</v>
+        <v>711</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>727</v>
+        <v>243</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>226</v>
+        <v>727</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>138</v>
+        <v>436</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>349</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>448</v>
+        <v>287</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>601</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>197</v>
+        <v>601</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>449</v>
+        <v>128</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>602</v>
+        <v>197</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>173</v>
+        <v>603</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>604</v>
+        <v>173</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>129</v>
+        <v>451</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>452</v>
+        <v>129</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>794</v>
+        <v>452</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>149</v>
+        <v>794</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>453</v>
+        <v>149</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>712</v>
+        <v>243</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>231</v>
+        <v>712</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>273</v>
+        <v>459</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>717</v>
+        <v>228</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>337</v>
+        <v>615</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>460</v>
+        <v>273</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>616</v>
+        <v>337</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>226</v>
+        <v>715</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>716</v>
+        <v>226</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>226</v>
+        <v>716</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>718</v>
+        <v>228</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>718</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>228</v>
+        <v>718</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>719</v>
+        <v>228</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>732</v>
+        <v>522</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>231</v>
+        <v>719</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>523</v>
+        <v>732</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>710</v>
+        <v>226</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>166</v>
+        <v>683</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>527</v>
+        <v>98</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>231</v>
+        <v>714</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>684</v>
+        <v>166</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>720</v>
+        <v>231</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>335</v>
+        <v>685</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>529</v>
+        <v>271</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>226</v>
+        <v>720</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>686</v>
+        <v>335</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>713</v>
+        <v>231</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>226</v>
+        <v>713</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>721</v>
+        <v>228</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>272</v>
+        <v>536</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>231</v>
+        <v>721</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>336</v>
+        <v>693</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>102</v>
+        <v>272</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>537</v>
+        <v>102</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>694</v>
+        <v>170</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>722</v>
+        <v>225</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>231</v>
+        <v>722</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>99</v>
+        <v>539</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>167</v>
+        <v>696</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>713</v>
+        <v>231</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>232</v>
+        <v>713</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>540</v>
+        <v>275</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>697</v>
+        <v>339</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>723</v>
+        <v>231</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>231</v>
+        <v>724</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>725</v>
+        <v>231</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>228</v>
+        <v>725</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>726</v>
+        <v>228</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>127</v>
+        <v>546</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>228</v>
+        <v>726</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>196</v>
+        <v>703</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>547</v>
+        <v>127</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>704</v>
+        <v>196</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C377" s="4" t="s">
+      <c r="C378" s="4" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="5" t="s">
+    <row r="379" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B378" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C378" s="7" t="s">
+      <c r="B379" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C379" s="7" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7839,11 +7858,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8212,16 +8231,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>759</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
-    <sheet name="委案" sheetId="4" r:id="rId2"/>
-    <sheet name="消息" sheetId="1" r:id="rId3"/>
+    <sheet name="消息" sheetId="1" r:id="rId2"/>
+    <sheet name="委案" sheetId="4" r:id="rId3"/>
     <sheet name="权限" sheetId="3" r:id="rId4"/>
     <sheet name="电话" sheetId="6" r:id="rId5"/>
     <sheet name="备注" sheetId="5" r:id="rId6"/>
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="800">
-  <si>
-    <t>to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="820">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,12 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意：
-1)附件路径构成 /MSG/entrusted_case/from-to/   eg. /MSG/1/1-2/
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +342,6 @@
   </si>
   <si>
     <t>lastModifiedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrustedCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2452,10 +2434,6 @@
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2508,14 +2486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>委案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2524,11 +2494,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elapse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长(毫秒)</t>
+    <t>委外机构</t>
+  </si>
+  <si>
+    <t>委外金额</t>
+  </si>
+  <si>
+    <t>已还金额</t>
+  </si>
+  <si>
+    <t>pch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwzt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次号（委外机构+委外日期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwjig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wczje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退案日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2536,125 +2603,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话记录存放路径：/PHONE_RECORDS/number/record</t>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : entrusted_case_report_attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCaseReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : message_attach_attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1)附件路径构成 /MSG/entrusted_case/from-to/   eg. /MSG/1/1-2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+1)fileAddress /REPORT/entrusted_case/creator/report   eg. /REPORT/1/2/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : attachements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件显示名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrustedCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话记录存放路径：/PHONE_RECORDS/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0:呼入
 1:呼出
-2:未接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：
-1)附件路径构成 /REPORT/entrusted_case/creator/report   eg. /REPORT/1/2/1
-2)附件字段存储用json数组，eg. ["example.xls", "example1.pdf","example2.word"]
-3) 通话记录附件名称为 phone:xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委外机构</t>
-  </si>
-  <si>
-    <t>委外金额</t>
-  </si>
-  <si>
-    <t>已还金额</t>
-  </si>
-  <si>
-    <t>pch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwrq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwzt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwjg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yhje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yhje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次号（委外机构+委外日期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwjg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwjig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wczje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tarq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退案日期</t>
+2:未接
+3:未接已忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3070,7 +3148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3114,9 +3192,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3134,14 +3209,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3456,9 +3531,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3468,64 +3541,64 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3535,86 +3608,86 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3631,10 +3704,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C379"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3647,43 +3996,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>749</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="A1" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3692,120 +4041,120 @@
       <c r="C5" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3814,4059 +4163,3956 @@
       <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>741</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>745</v>
+      <c r="A28" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
-        <v>772</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+    </row>
+    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>798</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>784</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>774</v>
+        <v>221</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>737</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>775</v>
+        <v>740</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>220</v>
+        <v>17</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>764</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>152</v>
+        <v>31</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>765</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>154</v>
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>778</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>155</v>
+        <v>17</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>771</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>156</v>
+        <v>227</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>768</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>157</v>
+        <v>227</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>158</v>
+      <c r="A51" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>159</v>
+      <c r="A52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>165</v>
+      <c r="C57" s="34" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>166</v>
+      <c r="A58" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>725</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>730</v>
+        <v>135</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>728</v>
+        <v>140</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>726</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>790</v>
+        <v>141</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C114" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="43" t="s">
-        <v>733</v>
-      </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-    </row>
-    <row r="118" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="36" t="s">
+      <c r="C117" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="44" t="s">
+        <v>729</v>
+      </c>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="C124" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C118" s="38" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="B125" s="39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="32" t="s">
-        <v>795</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>796</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>773</v>
+      <c r="C125" s="40" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="C126" s="41" t="s">
         <v>784</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>775</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>220</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>259</v>
+        <v>764</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>89</v>
+        <v>765</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>260</v>
+        <v>766</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>325</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>261</v>
+        <v>771</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>326</v>
+        <v>761</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>262</v>
+        <v>772</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>327</v>
+        <v>762</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>263</v>
+        <v>773</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>330</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>388</v>
+        <v>230</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>389</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>225</v>
+        <v>383</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>166</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>394</v>
+        <v>224</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>350</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="43" t="s">
-        <v>552</v>
-      </c>
-      <c r="B198" s="43"/>
-      <c r="C198" s="43"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B199" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>5</v>
+      <c r="A199" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>739</v>
+        <v>317</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>738</v>
+        <v>318</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="44" t="s">
+        <v>548</v>
+      </c>
+      <c r="B204" s="44"/>
+      <c r="C204" s="44"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>163</v>
+      <c r="A205" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>773</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>783</v>
+        <v>221</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>231</v>
+        <v>737</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>799</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>8</v>
+        <v>769</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>403</v>
+        <v>765</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>553</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>404</v>
+        <v>766</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>554</v>
+        <v>760</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>405</v>
+        <v>767</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>228</v>
+        <v>770</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>555</v>
+        <v>761</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>406</v>
+        <v>768</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>557</v>
+        <v>762</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>407</v>
+        <v>785</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>558</v>
+        <v>786</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>408</v>
+        <v>780</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>228</v>
+        <v>7</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>559</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>261</v>
+        <v>399</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>710</v>
+        <v>224</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>326</v>
+        <v>549</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>139</v>
+        <v>404</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>228</v>
+        <v>706</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>565</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>711</v>
+        <v>224</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>242</v>
+        <v>707</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>727</v>
+        <v>224</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>138</v>
+        <v>427</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>228</v>
+        <v>723</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>442</v>
+        <v>134</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>287</v>
+        <v>438</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>128</v>
+        <v>440</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>197</v>
+        <v>593</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>173</v>
+        <v>596</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>451</v>
+        <v>283</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>604</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>452</v>
+        <v>124</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>606</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>794</v>
+        <v>445</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>149</v>
+        <v>446</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>453</v>
+        <v>101</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>609</v>
+        <v>169</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>712</v>
+        <v>224</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>455</v>
+        <v>125</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>457</v>
+        <v>781</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>458</v>
+        <v>145</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>398</v>
+        <v>224</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>273</v>
+        <v>450</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>337</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>715</v>
+        <v>227</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>716</v>
+        <v>224</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>226</v>
+        <v>394</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>465</v>
+        <v>269</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>226</v>
+        <v>713</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>621</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>231</v>
+        <v>711</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>228</v>
+        <v>712</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>718</v>
+        <v>222</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>718</v>
+        <v>222</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>228</v>
+        <v>714</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>228</v>
+        <v>714</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>719</v>
+        <v>239</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>732</v>
+        <v>513</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>710</v>
+        <v>224</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>98</v>
+        <v>518</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>166</v>
+        <v>674</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>527</v>
+        <v>728</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>720</v>
+        <v>227</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>271</v>
+        <v>520</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>720</v>
+        <v>230</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>335</v>
+        <v>677</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>231</v>
+        <v>706</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>531</v>
+        <v>94</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>231</v>
+        <v>710</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>688</v>
+        <v>162</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>713</v>
+        <v>227</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>226</v>
+        <v>716</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>534</v>
+        <v>267</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>228</v>
+        <v>716</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>691</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>721</v>
+        <v>227</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>336</v>
+        <v>684</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>102</v>
+        <v>528</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>225</v>
+        <v>709</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>170</v>
+        <v>685</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>722</v>
+        <v>224</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>99</v>
+        <v>532</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>231</v>
+        <v>717</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>167</v>
+        <v>689</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>713</v>
+        <v>227</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>275</v>
+        <v>533</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>339</v>
+        <v>690</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>231</v>
+        <v>718</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>723</v>
+        <v>227</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>542</v>
+        <v>95</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>724</v>
+        <v>227</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>699</v>
+        <v>163</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>543</v>
+        <v>273</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>231</v>
+        <v>709</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>700</v>
+        <v>336</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>544</v>
+        <v>270</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>725</v>
+        <v>228</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>701</v>
+        <v>334</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>545</v>
+        <v>271</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>702</v>
+        <v>335</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>726</v>
+        <v>227</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>127</v>
+        <v>537</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>228</v>
+        <v>719</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>196</v>
+        <v>694</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>234</v>
+        <v>720</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>228</v>
+        <v>721</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A20:C20"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7879,9 +8125,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7891,42 +8135,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -7936,99 +8180,99 @@
     </row>
     <row r="6" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -8039,53 +8283,53 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -8097,116 +8341,113 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>771</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>761</v>
+      <c r="A5" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>763</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>765</v>
+      <c r="A7" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>770</v>
+      <c r="A8" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -8231,71 +8472,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>759</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="46"/>
+      <c r="A3" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="823">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2733,6 +2733,18 @@
   </si>
   <si>
     <t>isRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syje</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3531,7 +3543,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3981,10 +3993,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4449,3656 +4461,3689 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>773</v>
+        <v>822</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>216</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>773</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>148</v>
+        <v>775</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="25" t="s">
+      <c r="B57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B58" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C58" s="34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" s="33" t="s">
+      <c r="B59" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>725</v>
+        <v>117</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>725</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C94" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C94" s="25" t="s">
+      <c r="B95" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>726</v>
+        <v>140</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>726</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>724</v>
+        <v>144</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>724</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>777</v>
+        <v>145</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" s="25" t="s">
+      <c r="B121" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+    <row r="122" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" s="26" t="s">
+      <c r="B122" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="44" t="s">
+    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="44" t="s">
         <v>729</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-    </row>
-    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="35" t="s">
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
+    </row>
+    <row r="125" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="36" t="s">
+      <c r="B125" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="37" t="s">
+      <c r="C125" s="37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="38" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B125" s="39" t="s">
+      <c r="B126" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C126" s="40" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B127" s="32" t="s">
         <v>783</v>
       </c>
-      <c r="C126" s="41" t="s">
+      <c r="C127" s="41" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>552</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>760</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>216</v>
+        <v>762</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>255</v>
+        <v>822</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>224</v>
+        <v>820</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>320</v>
+        <v>821</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>85</v>
+        <v>773</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>383</v>
+        <v>224</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>383</v>
+        <v>230</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>221</v>
+        <v>383</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>389</v>
+        <v>228</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B203" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C203" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="5" t="s">
+    <row r="204" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C202" s="7" t="s">
+      <c r="B204" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="44" t="s">
+    <row r="206" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="B204" s="44"/>
-      <c r="C204" s="44"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="16" t="s">
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B207" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C207" s="18" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>737</v>
+        <v>221</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>739</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>552</v>
+        <v>705</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>149</v>
+        <v>739</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>159</v>
+        <v>552</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>17</v>
+        <v>769</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>760</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>770</v>
+        <v>17</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>761</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>31</v>
+        <v>770</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>216</v>
+        <v>762</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>399</v>
+        <v>822</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>224</v>
+        <v>820</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>549</v>
+        <v>821</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>400</v>
+        <v>785</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>550</v>
+        <v>786</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>401</v>
+        <v>780</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>551</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>257</v>
+        <v>402</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>706</v>
+        <v>224</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>322</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>224</v>
+        <v>706</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>558</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>135</v>
+        <v>406</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>707</v>
+        <v>222</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>224</v>
+        <v>707</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>723</v>
+        <v>224</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>227</v>
+        <v>723</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>435</v>
+        <v>134</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>345</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>193</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>598</v>
+        <v>345</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>448</v>
+        <v>101</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>602</v>
+        <v>169</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>781</v>
+        <v>447</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>450</v>
+        <v>781</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>708</v>
+        <v>227</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>451</v>
+        <v>145</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>224</v>
+        <v>708</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>269</v>
+        <v>453</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>713</v>
+        <v>224</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>333</v>
+        <v>609</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>711</v>
+        <v>394</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>614</v>
+        <v>333</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>222</v>
+        <v>711</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>714</v>
+        <v>227</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>714</v>
+        <v>224</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>224</v>
+        <v>714</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>224</v>
+        <v>714</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>715</v>
+        <v>239</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>728</v>
+        <v>516</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>230</v>
+        <v>715</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>521</v>
+        <v>728</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>706</v>
+        <v>227</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>94</v>
+        <v>520</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>710</v>
+        <v>230</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>162</v>
+        <v>677</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>227</v>
+        <v>716</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>527</v>
+        <v>267</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>227</v>
+        <v>716</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>684</v>
+        <v>331</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>709</v>
+        <v>222</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>224</v>
+        <v>709</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>717</v>
+        <v>222</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>268</v>
+        <v>530</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>332</v>
+        <v>687</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>166</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>221</v>
+        <v>717</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>534</v>
+        <v>268</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>718</v>
+        <v>227</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>691</v>
+        <v>332</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>692</v>
+        <v>166</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>163</v>
+        <v>690</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>273</v>
+        <v>534</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>336</v>
+        <v>691</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>270</v>
+        <v>535</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>334</v>
+        <v>692</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>536</v>
+        <v>273</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>227</v>
+        <v>709</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>693</v>
+        <v>336</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>537</v>
+        <v>270</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>719</v>
+        <v>228</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>694</v>
+        <v>334</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>538</v>
+        <v>271</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>720</v>
+        <v>227</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>695</v>
+        <v>335</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>224</v>
+        <v>720</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>722</v>
+        <v>227</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>123</v>
+        <v>540</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>224</v>
+        <v>721</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>192</v>
+        <v>697</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>224</v>
+        <v>722</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>545</v>
+        <v>123</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>702</v>
+        <v>192</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C384" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="5" t="s">
+    <row r="388" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C385" s="7" t="s">
+      <c r="B388" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C388" s="7" t="s">
         <v>704</v>
       </c>
     </row>
@@ -8106,9 +8151,9 @@
   <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A206:C206"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A33:C33"/>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="821">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,14 +298,6 @@
   </si>
   <si>
     <t>接口id[主键]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3671,13 +3663,13 @@
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3758,7 +3750,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -3769,7 +3761,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -3780,7 +3772,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -3791,13 +3783,13 @@
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -3824,7 +3816,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -3835,7 +3827,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
@@ -3846,7 +3838,7 @@
     </row>
     <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -3858,7 +3850,7 @@
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3887,24 +3879,24 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3919,7 +3911,7 @@
     </row>
     <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3948,35 +3940,35 @@
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3985,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C388"/>
+  <dimension ref="A1:C387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4009,7 +4001,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -4033,12 +4025,12 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -4054,7 +4046,7 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -4111,15 +4103,15 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
@@ -4127,7 +4119,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>34</v>
@@ -4138,18 +4130,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -4160,13 +4152,13 @@
     </row>
     <row r="18" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4176,7 +4168,7 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -4216,277 +4208,277 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>741</v>
+      <c r="A27" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="29" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>798</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
-        <v>790</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
+    <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>791</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>799</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>801</v>
+        <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>4</v>
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>734</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>220</v>
+        <v>735</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>740</v>
+        <v>17</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>776</v>
+        <v>31</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>159</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>227</v>
+        <v>818</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>822</v>
+        <v>771</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>820</v>
+        <v>773</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>821</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>773</v>
+        <v>80</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>148</v>
@@ -4494,98 +4486,98 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="25" t="s">
+      <c r="B57" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="25" t="s">
+      <c r="B58" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="34" t="s">
+      <c r="B59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C62" s="25" t="s">
         <v>158</v>
@@ -4593,1578 +4585,1578 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>723</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>725</v>
+        <v>116</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="25" t="s">
+      <c r="B94" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C94" s="25" t="s">
+      <c r="B95" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>724</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>726</v>
+        <v>139</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>722</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>724</v>
+        <v>143</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>775</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="44" t="s">
-        <v>729</v>
-      </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-    </row>
-    <row r="125" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="B126" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="C127" s="41" t="s">
-        <v>784</v>
+      <c r="B127" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>738</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>552</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>159</v>
+        <v>758</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>227</v>
+        <v>818</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>822</v>
+        <v>771</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>820</v>
+        <v>7</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>821</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>773</v>
+        <v>253</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>230</v>
+        <v>381</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>383</v>
+        <v>224</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>341</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>224</v>
+        <v>388</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>390</v>
+        <v>222</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>230</v>
+        <v>390</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C202" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="B206" s="44"/>
-      <c r="C206" s="44"/>
+    <row r="205" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>4</v>
+      <c r="A207" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>8</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -6172,150 +6164,150 @@
         <v>734</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>221</v>
+        <v>735</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>737</v>
+        <v>17</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>739</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>17</v>
+        <v>767</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>552</v>
+        <v>147</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>769</v>
+        <v>17</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>159</v>
+        <v>758</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>17</v>
+        <v>768</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>770</v>
+        <v>225</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>227</v>
+        <v>818</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>820</v>
+        <v>31</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>821</v>
+        <v>784</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>786</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>780</v>
+        <v>397</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>216</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>551</v>
@@ -6323,1841 +6315,1830 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>224</v>
+        <v>704</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>555</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>706</v>
+        <v>222</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>322</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>408</v>
+        <v>133</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>227</v>
+        <v>705</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>707</v>
+        <v>225</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>239</v>
+        <v>721</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>723</v>
+        <v>220</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>443</v>
+        <v>281</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>596</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>283</v>
+        <v>442</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>345</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>444</v>
+        <v>122</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>597</v>
+        <v>191</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>124</v>
+        <v>443</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>193</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>446</v>
+        <v>99</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>599</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>101</v>
+        <v>445</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>169</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>447</v>
+        <v>123</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>448</v>
+        <v>779</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>781</v>
+        <v>143</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>239</v>
+        <v>706</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>708</v>
+        <v>225</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>224</v>
+        <v>392</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>394</v>
+        <v>222</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>455</v>
+        <v>267</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>224</v>
+        <v>711</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>611</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>333</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>711</v>
+        <v>220</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>222</v>
+        <v>710</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>712</v>
+        <v>220</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>224</v>
+        <v>712</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>714</v>
+        <v>222</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>224</v>
+        <v>713</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>518</v>
+        <v>726</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>715</v>
+        <v>225</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>728</v>
+        <v>517</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>222</v>
+        <v>704</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>522</v>
+        <v>92</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>679</v>
+        <v>160</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>94</v>
+        <v>521</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>710</v>
+        <v>225</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>162</v>
+        <v>678</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>227</v>
+        <v>714</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>524</v>
+        <v>265</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>681</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>716</v>
+        <v>220</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>331</v>
+        <v>680</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>227</v>
+        <v>707</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>709</v>
+        <v>220</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>224</v>
+        <v>715</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>532</v>
+        <v>266</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>717</v>
+        <v>225</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>689</v>
+        <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>332</v>
+        <v>164</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>166</v>
+        <v>688</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>221</v>
+        <v>716</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>718</v>
+        <v>225</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>535</v>
+        <v>93</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>692</v>
+        <v>161</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>227</v>
+        <v>707</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>709</v>
+        <v>226</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>271</v>
+        <v>534</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>335</v>
+        <v>691</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>227</v>
+        <v>717</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>227</v>
+        <v>719</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>721</v>
+        <v>222</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>224</v>
+        <v>720</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>542</v>
+        <v>121</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>722</v>
+        <v>222</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>699</v>
+        <v>190</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>123</v>
+        <v>541</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>192</v>
+        <v>698</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C386" s="4" t="s">
+      <c r="B387" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C387" s="7" t="s">
         <v>702</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8215,7 +8196,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8305,7 +8286,7 @@
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -8314,7 +8295,7 @@
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>54</v>
@@ -8368,7 +8349,7 @@
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>5</v>
@@ -8399,7 +8380,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -8434,65 +8415,65 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>805</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -8518,22 +8499,22 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8541,15 +8522,15 @@
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -8557,7 +8538,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8565,7 +8546,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -8573,15 +8554,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="819">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2535,18 +2535,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批次号（委外机构+委外日期）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2560,10 +2552,6 @@
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beiz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2737,6 +2725,10 @@
   </si>
   <si>
     <t>syje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3761,7 +3753,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -3827,7 +3819,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
@@ -3838,7 +3830,7 @@
     </row>
     <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -3850,7 +3842,7 @@
     </row>
     <row r="14" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3879,24 +3871,24 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3911,7 +3903,7 @@
     </row>
     <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3940,35 +3932,35 @@
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -3985,10 +3977,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C387"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4274,7 +4266,7 @@
     </row>
     <row r="30" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -4286,7 +4278,7 @@
     </row>
     <row r="32" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -4304,24 +4296,24 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4376,13 +4368,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4409,7 +4401,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
@@ -4442,3689 +4434,3656 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>771</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>151</v>
+      <c r="A56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>152</v>
+      <c r="A57" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>153</v>
+      <c r="A58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>723</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>723</v>
+        <v>116</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>138</v>
+        <v>724</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>724</v>
+        <v>139</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>722</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>722</v>
+        <v>143</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>773</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+    </row>
+    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="44" t="s">
-        <v>727</v>
-      </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-    </row>
-    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="B125" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="C126" s="41" t="s">
-        <v>782</v>
+      <c r="B126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>736</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>550</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>157</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>225</v>
+        <v>815</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>820</v>
+        <v>253</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>818</v>
+        <v>222</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>819</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>771</v>
+        <v>83</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>381</v>
+        <v>219</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>382</v>
+        <v>219</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>338</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>228</v>
+        <v>391</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C202" s="4" t="s">
         <v>378</v>
       </c>
     </row>
+    <row r="201" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="203" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="44" t="s">
+      <c r="A203" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="B205" s="44"/>
-      <c r="C205" s="44"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="44"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>4</v>
+      <c r="A206" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>219</v>
+        <v>735</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>8</v>
+        <v>737</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>703</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>737</v>
+        <v>147</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>550</v>
+        <v>157</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>767</v>
+        <v>17</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>147</v>
+        <v>758</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>17</v>
+        <v>768</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>157</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>765</v>
+        <v>817</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>768</v>
+        <v>815</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>759</v>
+        <v>816</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>820</v>
+        <v>397</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>818</v>
+        <v>222</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>819</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>783</v>
+        <v>398</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>784</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>778</v>
+        <v>399</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>214</v>
+        <v>549</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>222</v>
+        <v>704</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>551</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>704</v>
+        <v>222</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>320</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>404</v>
+        <v>133</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>220</v>
+        <v>705</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>705</v>
+        <v>222</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>222</v>
+        <v>721</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>721</v>
+        <v>225</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>428</v>
+        <v>132</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>132</v>
+        <v>433</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>439</v>
+        <v>281</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>592</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>441</v>
+        <v>122</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>281</v>
+        <v>443</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>343</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>444</v>
+        <v>123</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>99</v>
+        <v>446</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>167</v>
+        <v>600</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>445</v>
+        <v>776</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>123</v>
+        <v>818</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>779</v>
+        <v>448</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>225</v>
+        <v>706</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>143</v>
+        <v>449</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>706</v>
+        <v>222</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>451</v>
+        <v>267</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>222</v>
+        <v>711</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>607</v>
+        <v>331</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>392</v>
+        <v>709</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>267</v>
+        <v>456</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>331</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>709</v>
+        <v>220</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>710</v>
+        <v>220</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>225</v>
+        <v>712</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>712</v>
+        <v>222</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>712</v>
+        <v>222</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>237</v>
+        <v>713</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>514</v>
+        <v>726</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>713</v>
+        <v>228</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>726</v>
+        <v>519</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>225</v>
+        <v>704</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>518</v>
+        <v>92</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>228</v>
+        <v>708</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>675</v>
+        <v>160</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>714</v>
+        <v>225</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>265</v>
+        <v>525</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>714</v>
+        <v>225</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>329</v>
+        <v>682</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>220</v>
+        <v>707</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>707</v>
+        <v>222</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>220</v>
+        <v>715</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>528</v>
+        <v>266</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>685</v>
+        <v>330</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>686</v>
+        <v>164</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>715</v>
+        <v>219</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>225</v>
+        <v>716</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>330</v>
+        <v>689</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>96</v>
+        <v>533</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>164</v>
+        <v>690</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>531</v>
+        <v>93</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>688</v>
+        <v>161</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>532</v>
+        <v>271</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>689</v>
+        <v>334</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>533</v>
+        <v>268</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>690</v>
+        <v>332</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>271</v>
+        <v>534</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>707</v>
+        <v>225</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>334</v>
+        <v>691</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>268</v>
+        <v>535</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>226</v>
+        <v>717</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>332</v>
+        <v>692</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>269</v>
+        <v>536</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>225</v>
+        <v>718</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>333</v>
+        <v>693</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>718</v>
+        <v>222</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>225</v>
+        <v>720</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>538</v>
+        <v>121</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>719</v>
+        <v>222</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>695</v>
+        <v>190</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>720</v>
+        <v>222</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>121</v>
+        <v>543</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>190</v>
+        <v>700</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C386" s="4" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="5" t="s">
+    <row r="384" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C387" s="7" t="s">
+      <c r="B384" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C384" s="7" t="s">
         <v>702</v>
       </c>
     </row>
@@ -8132,9 +8091,9 @@
   <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A203:C203"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A122:C122"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A32:C32"/>
@@ -8415,12 +8374,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -8431,22 +8390,22 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8462,18 +8421,18 @@
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>

--- a/design/数据库/数据字典.xlsx
+++ b/design/数据库/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="829">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2701,34 +2701,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证前4位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名 : areas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证（前四位）</t>
+  </si>
+  <si>
+    <t>省份城市1100北京北京1200天津天津1301河北石家庄1302河北唐山1303河北秦皇岛1304河北邯郸1305河北邢台1306河北保定1307河北张家口1308河北承德1309河北沧州1310河北廊坊1311河北衡水1401山西太原1402山西大同1403山西阳泉1404山西长治1405山西晋城1422山西忻州1424山西晋中1426山西临汾1427山西运城1501内蒙古呼和浩特1502内蒙古包头1503内蒙古乌海1504内蒙古赤峰1521内蒙古呼伦贝尔1522内蒙古兴安1523内蒙古哲里木1525内蒙古锡林郭勒1526内蒙古乌兰察布1527内蒙古伊克昭1528内蒙古巴彦淖尔1529内蒙古阿拉善2101辽宁沈阳2102辽宁大连2103辽宁鞍山2104辽宁抚顺2105辽宁本溪2106辽宁丹东2107辽宁锦州2108辽宁营口2109辽宁阜新2110辽宁辽阳2111辽宁盘锦2112辽宁铁岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0:呼入
 1:呼出
 2:未接
-3:未接已忽略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>syje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biz</t>
+3:未接已忽略
+4:未接不显示在通知中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3527,7 +3567,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3753,7 +3795,7 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -3819,7 +3861,7 @@
     </row>
     <row r="11" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
@@ -3977,10 +4019,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A223" sqref="A223:C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4434,13 +4476,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4555,3545 +4597,3627 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>823</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>219</v>
+        <v>824</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>158</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>723</v>
+        <v>115</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>723</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C93" s="25" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C93" s="25" t="s">
+      <c r="B94" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>724</v>
+        <v>138</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>724</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>722</v>
+        <v>142</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>722</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>773</v>
+        <v>143</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C119" s="25" t="s">
+      <c r="B120" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
+    <row r="121" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C120" s="26" t="s">
+      <c r="B121" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C121" s="26" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="44" t="s">
+    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-    </row>
-    <row r="123" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="35" t="s">
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+    </row>
+    <row r="124" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="36" t="s">
+      <c r="B124" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="37" t="s">
+      <c r="C124" s="37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B125" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="40" t="s">
+      <c r="C125" s="40" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="31" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B126" s="32" t="s">
         <v>778</v>
       </c>
-      <c r="C125" s="41" t="s">
+      <c r="C126" s="41" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>550</v>
+        <v>736</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>758</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>817</v>
+        <v>770</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>815</v>
+        <v>225</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>816</v>
+        <v>760</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>253</v>
+        <v>816</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>222</v>
+        <v>814</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>318</v>
+        <v>815</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>258</v>
+        <v>823</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>323</v>
+        <v>824</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>381</v>
+        <v>228</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>219</v>
+        <v>381</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>219</v>
+        <v>382</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>222</v>
+        <v>388</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C202" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
+    <row r="203" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C201" s="7" t="s">
+      <c r="B203" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C203" s="7" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="44" t="s">
+    <row r="205" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="B203" s="44"/>
-      <c r="C203" s="44"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="16" t="s">
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="17" t="s">
+      <c r="B206" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C206" s="18" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>735</v>
+        <v>219</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>737</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>550</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>147</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>157</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>17</v>
+        <v>767</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>758</v>
+        <v>147</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>768</v>
+        <v>17</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>759</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>817</v>
+        <v>765</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>816</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>397</v>
+        <v>816</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>222</v>
+        <v>814</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>547</v>
+        <v>815</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>398</v>
+        <v>780</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>548</v>
+        <v>781</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>704</v>
+        <v>222</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>320</v>
+        <v>552</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>403</v>
+        <v>823</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>554</v>
+        <v>824</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>704</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>556</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>133</v>
+        <v>404</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>409</v>
+        <v>133</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>705</v>
+        <v>220</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>222</v>
+        <v>705</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>721</v>
+        <v>222</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>225</v>
+        <v>721</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>132</v>
+        <v>428</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>433</v>
+        <v>132</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>281</v>
+        <v>439</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>343</v>
+        <v>592</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>122</v>
+        <v>441</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>191</v>
+        <v>594</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>443</v>
+        <v>281</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>596</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>123</v>
+        <v>444</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>446</v>
+        <v>99</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>600</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>776</v>
+        <v>445</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>818</v>
+        <v>123</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>448</v>
+        <v>776</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>706</v>
+        <v>225</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>449</v>
+        <v>817</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>222</v>
+        <v>706</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>267</v>
+        <v>451</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>711</v>
+        <v>222</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>331</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>709</v>
+        <v>392</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>456</v>
+        <v>267</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>612</v>
+        <v>331</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>220</v>
+        <v>709</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>220</v>
+        <v>710</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>712</v>
+        <v>225</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>712</v>
+        <v>222</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>713</v>
+        <v>237</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>726</v>
+        <v>514</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>228</v>
+        <v>713</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>519</v>
+        <v>726</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>704</v>
+        <v>225</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>92</v>
+        <v>518</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>708</v>
+        <v>228</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>160</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>225</v>
+        <v>714</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>525</v>
+        <v>265</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>225</v>
+        <v>714</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>682</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>707</v>
+        <v>220</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>222</v>
+        <v>707</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>715</v>
+        <v>220</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>266</v>
+        <v>528</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>330</v>
+        <v>685</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>96</v>
+        <v>529</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>164</v>
+        <v>686</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>219</v>
+        <v>715</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>532</v>
+        <v>266</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>716</v>
+        <v>225</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>689</v>
+        <v>330</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>533</v>
+        <v>96</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>690</v>
+        <v>164</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>93</v>
+        <v>531</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>161</v>
+        <v>688</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>271</v>
+        <v>532</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>334</v>
+        <v>689</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>268</v>
+        <v>533</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>332</v>
+        <v>690</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>333</v>
+        <v>161</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>225</v>
+        <v>707</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>691</v>
+        <v>334</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>535</v>
+        <v>268</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>717</v>
+        <v>226</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>692</v>
+        <v>332</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>536</v>
+        <v>269</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>718</v>
+        <v>225</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>693</v>
+        <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>222</v>
+        <v>718</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>720</v>
+        <v>225</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>121</v>
+        <v>538</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>222</v>
+        <v>719</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>190</v>
+        <v>695</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>222</v>
+        <v>720</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>543</v>
+        <v>121</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>700</v>
+        <v>190</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C386" s="4" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="5" t="s">
+    <row r="387" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B384" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C384" s="7" t="s">
+      <c r="B387" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C387" s="7" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A205:C205"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A32:C32"/>
@@ -8328,7 +8452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8366,7 +8492,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -8374,7 +8500,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -8445,10 +8571,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8524,6 +8650,16 @@
         <v>248</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
